--- a/data-raw/REACH_2024_MSNA-kobo-tool_draft_v10.xlsx
+++ b/data-raw/REACH_2024_MSNA-kobo-tool_draft_v10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/raphael_bacot_impact-initiatives_org/Documents/git/humind/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{167789E5-FC15-43A5-8409-582F20352593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{188EA2E2-9B3F-49E9-B278-F1C46AFB4903}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259D4BC-F608-493A-9FAA-F6A519E5131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -6050,12 +6050,6 @@
     <t>Lire les options de réponse à voix haute.</t>
   </si>
   <si>
-    <t>Individual diffiulty seeing</t>
-  </si>
-  <si>
-    <t>Individual diffiulty hearing</t>
-  </si>
-  <si>
     <t>Individual difficulty walking</t>
   </si>
   <si>
@@ -6096,6 +6090,12 @@
   </si>
   <si>
     <t>En utilisant sa langue habituelle, a-t-il/elle des difficultés à communiquer, par exemple à comprendre ou à se faire comprendre ? Diriez-vous que...</t>
+  </si>
+  <si>
+    <t>Individual difficulty seeing</t>
+  </si>
+  <si>
+    <t>Individual difficulty hearing</t>
   </si>
 </sst>
 </file>
@@ -6261,7 +6261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6395,6 +6395,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6403,13 +6407,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6445,10 +6442,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6686,10 +6679,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F2087-EBA3-4A4D-855A-29B5D74B1D94}">
   <dimension ref="A1:Y525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
@@ -9114,7 +9107,7 @@
       <c r="W54" s="23"/>
       <c r="X54" s="23"/>
     </row>
-    <row r="55" spans="2:24" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B55" s="9">
         <v>2</v>
       </c>
@@ -9131,10 +9124,10 @@
       <c r="I55" s="14" t="s">
         <v>1887</v>
       </c>
-      <c r="J55" s="51" t="s">
+      <c r="J55" s="14" t="s">
         <v>1915</v>
       </c>
-      <c r="K55" s="51" t="s">
+      <c r="K55" s="14" t="s">
         <v>1916</v>
       </c>
       <c r="L55" s="14"/>
@@ -9204,7 +9197,7 @@
         <v>162</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="11" t="s">
@@ -9228,7 +9221,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="52"/>
+      <c r="S57" s="48"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
@@ -9249,7 +9242,7 @@
         <v>162</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="11" t="s">
@@ -9274,7 +9267,7 @@
         <v>1921</v>
       </c>
       <c r="Q58" s="11"/>
-      <c r="S58" s="52"/>
+      <c r="S58" s="48"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
@@ -9295,7 +9288,7 @@
         <v>162</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="11" t="s">
@@ -9320,7 +9313,7 @@
         <v>1922</v>
       </c>
       <c r="Q59" s="11"/>
-      <c r="S59" s="52"/>
+      <c r="S59" s="48"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
@@ -9341,7 +9334,7 @@
         <v>162</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="11" t="s">
@@ -9365,7 +9358,7 @@
       <c r="P60" s="11" t="s">
         <v>1923</v>
       </c>
-      <c r="Q60" s="52" t="s">
+      <c r="Q60" s="48" t="s">
         <v>1924</v>
       </c>
       <c r="T60" s="11"/>
@@ -9429,7 +9422,7 @@
         <v>162</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>1955</v>
+        <v>1969</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="11" t="s">
@@ -9442,7 +9435,7 @@
         <v>1890</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>1891</v>
@@ -9478,7 +9471,7 @@
         <v>162</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>1956</v>
+        <v>1970</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="11" t="s">
@@ -9491,7 +9484,7 @@
         <v>1893</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>1891</v>
@@ -9527,7 +9520,7 @@
         <v>162</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="11" t="s">
@@ -9540,7 +9533,7 @@
         <v>1895</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="L64" s="11" t="s">
         <v>1891</v>
@@ -9576,7 +9569,7 @@
         <v>162</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="11" t="s">
@@ -9589,7 +9582,7 @@
         <v>1897</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="L65" s="11" t="s">
         <v>1891</v>
@@ -9625,7 +9618,7 @@
         <v>162</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="11" t="s">
@@ -9638,7 +9631,7 @@
         <v>1899</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="L66" s="11" t="s">
         <v>1891</v>
@@ -9674,7 +9667,7 @@
         <v>162</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="11" t="s">
@@ -9687,7 +9680,7 @@
         <v>1901</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="L67" s="11" t="s">
         <v>1891</v>
@@ -19521,8 +19514,8 @@
       <c r="L280" s="33"/>
       <c r="M280" s="33"/>
       <c r="N280" s="33"/>
-      <c r="O280" s="47"/>
-      <c r="P280" s="47"/>
+      <c r="O280" s="49"/>
+      <c r="P280" s="49"/>
       <c r="Q280" s="33"/>
       <c r="R280" s="33"/>
       <c r="S280" s="33"/>
@@ -19616,10 +19609,10 @@
         <v>997</v>
       </c>
       <c r="N282" s="35"/>
-      <c r="O282" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P282" s="49"/>
+      <c r="O282" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P282" s="51"/>
       <c r="Q282" s="35"/>
       <c r="R282" s="35"/>
       <c r="S282" s="35"/>
@@ -19664,10 +19657,10 @@
       <c r="L283" s="38"/>
       <c r="M283" s="38"/>
       <c r="N283" s="38"/>
-      <c r="O283" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="P283" s="48"/>
+      <c r="O283" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P283" s="50"/>
       <c r="Q283" s="38"/>
       <c r="R283" s="38"/>
       <c r="S283" s="38"/>
@@ -19758,10 +19751,10 @@
       <c r="L285" s="38"/>
       <c r="M285" s="38"/>
       <c r="N285" s="38"/>
-      <c r="O285" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="P285" s="48"/>
+      <c r="O285" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P285" s="50"/>
       <c r="Q285" s="38"/>
       <c r="R285" s="38"/>
       <c r="S285" s="38"/>
@@ -19806,10 +19799,10 @@
       <c r="L286" s="35"/>
       <c r="M286" s="35"/>
       <c r="N286" s="35"/>
-      <c r="O286" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P286" s="49"/>
+      <c r="O286" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P286" s="51"/>
       <c r="Q286" s="35"/>
       <c r="R286" s="35"/>
       <c r="S286" s="35"/>
@@ -19854,10 +19847,10 @@
       <c r="L287" s="38"/>
       <c r="M287" s="38"/>
       <c r="N287" s="38"/>
-      <c r="O287" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="P287" s="48"/>
+      <c r="O287" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P287" s="50"/>
       <c r="Q287" s="38"/>
       <c r="R287" s="38"/>
       <c r="S287" s="38"/>
@@ -19896,8 +19889,8 @@
       <c r="L288" s="33"/>
       <c r="M288" s="33"/>
       <c r="N288" s="33"/>
-      <c r="O288" s="47"/>
-      <c r="P288" s="47"/>
+      <c r="O288" s="49"/>
+      <c r="P288" s="49"/>
       <c r="Q288" s="33"/>
       <c r="R288" s="33"/>
       <c r="S288" s="33"/>
@@ -27213,86 +27206,86 @@
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A459" s="50" t="s">
+      <c r="A459" s="47" t="s">
         <v>1913</v>
       </c>
-      <c r="B459" s="50" t="s">
+      <c r="B459" s="47" t="s">
         <v>1902</v>
       </c>
-      <c r="C459" s="50" t="s">
+      <c r="C459" s="47" t="s">
         <v>1903</v>
       </c>
-      <c r="D459" s="50" t="s">
+      <c r="D459" s="47" t="s">
         <v>1936</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A460" s="50" t="s">
+      <c r="A460" s="47" t="s">
         <v>1913</v>
       </c>
-      <c r="B460" s="50" t="s">
+      <c r="B460" s="47" t="s">
         <v>1904</v>
       </c>
-      <c r="C460" s="50" t="s">
+      <c r="C460" s="47" t="s">
         <v>1905</v>
       </c>
-      <c r="D460" s="50" t="s">
+      <c r="D460" s="47" t="s">
         <v>1937</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A461" s="50" t="s">
+      <c r="A461" s="47" t="s">
         <v>1913</v>
       </c>
-      <c r="B461" s="50" t="s">
+      <c r="B461" s="47" t="s">
         <v>1906</v>
       </c>
-      <c r="C461" s="50" t="s">
+      <c r="C461" s="47" t="s">
         <v>1907</v>
       </c>
-      <c r="D461" s="50" t="s">
+      <c r="D461" s="47" t="s">
         <v>1938</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A462" s="50" t="s">
+      <c r="A462" s="47" t="s">
         <v>1913</v>
       </c>
-      <c r="B462" s="50" t="s">
+      <c r="B462" s="47" t="s">
         <v>1908</v>
       </c>
-      <c r="C462" s="50" t="s">
+      <c r="C462" s="47" t="s">
         <v>1909</v>
       </c>
-      <c r="D462" s="50" t="s">
+      <c r="D462" s="47" t="s">
         <v>1939</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A463" s="50" t="s">
+      <c r="A463" s="47" t="s">
         <v>1913</v>
       </c>
-      <c r="B463" s="50" t="s">
+      <c r="B463" s="47" t="s">
         <v>1910</v>
       </c>
-      <c r="C463" s="50" t="s">
+      <c r="C463" s="47" t="s">
         <v>1911</v>
       </c>
-      <c r="D463" s="50" t="s">
+      <c r="D463" s="47" t="s">
         <v>1940</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A464" s="50" t="s">
+      <c r="A464" s="47" t="s">
         <v>1913</v>
       </c>
-      <c r="B464" s="50" t="s">
+      <c r="B464" s="47" t="s">
         <v>1912</v>
       </c>
-      <c r="C464" s="50" t="s">
+      <c r="C464" s="47" t="s">
         <v>1105</v>
       </c>
-      <c r="D464" s="50" t="s">
+      <c r="D464" s="47" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -27373,15 +27366,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412">
@@ -27390,6 +27374,15 @@
     <TaxCatchAll xmlns="a6c4a5f2-8fa1-4399-adba-98b13265f581" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27588,20 +27581,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4676863E-963D-4151-9B18-83A7B5BD8FFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
     <ds:schemaRef ds:uri="a6c4a5f2-8fa1-4399-adba-98b13265f581"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data-raw/REACH_2024_MSNA-kobo-tool_draft_v10.xlsx
+++ b/data-raw/REACH_2024_MSNA-kobo-tool_draft_v10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259D4BC-F608-493A-9FAA-F6A519E5131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D049434-AF3B-45B1-9DFF-BF2C581147CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="1971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="1967">
   <si>
     <t>Level</t>
   </si>
@@ -5907,19 +5907,7 @@
     <t>A lot of difficulty</t>
   </si>
   <si>
-    <t>cannot_do_at_all</t>
-  </si>
-  <si>
     <t>Cannot do at all</t>
-  </si>
-  <si>
-    <t>refused_to_answer</t>
-  </si>
-  <si>
-    <t>Refused to answer</t>
-  </si>
-  <si>
-    <t>dont_know</t>
   </si>
   <si>
     <t>l_difficulty</t>
@@ -6005,9 +5993,6 @@
     <t>Pas du tout</t>
   </si>
   <si>
-    <t>Refus de répondre</t>
-  </si>
-  <si>
     <t>Oui [entretien direct]</t>
   </si>
   <si>
@@ -6096,6 +6081,9 @@
   </si>
   <si>
     <t>Individual difficulty hearing</t>
+  </si>
+  <si>
+    <t>cannot_do</t>
   </si>
 </sst>
 </file>
@@ -6679,10 +6667,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F2087-EBA3-4A4D-855A-29B5D74B1D94}">
   <dimension ref="A1:Y525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
@@ -9125,10 +9113,10 @@
         <v>1887</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
@@ -9164,10 +9152,10 @@
         <v>1886</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
@@ -9197,20 +9185,20 @@
         <v>162</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="11" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -9242,20 +9230,20 @@
         <v>162</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="11" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
@@ -9264,7 +9252,7 @@
         <v>1097</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="Q58" s="11"/>
       <c r="S58" s="48"/>
@@ -9288,20 +9276,20 @@
         <v>162</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
@@ -9310,7 +9298,7 @@
         <v>1097</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="Q59" s="11"/>
       <c r="S59" s="48"/>
@@ -9334,20 +9322,20 @@
         <v>162</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
@@ -9356,10 +9344,10 @@
         <v>1097</v>
       </c>
       <c r="P60" s="11" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="Q60" s="48" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
@@ -9382,13 +9370,13 @@
         <v>38</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
@@ -9403,7 +9391,7 @@
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
       <c r="V61" s="14" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="W61" s="14"/>
       <c r="X61" s="14"/>
@@ -9422,11 +9410,11 @@
         <v>162</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="11" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>1889</v>
@@ -9435,13 +9423,13 @@
         <v>1890</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>1891</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="N62" s="11"/>
       <c r="O62" s="11" t="s">
@@ -9471,11 +9459,11 @@
         <v>162</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="11" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="I63" s="11" t="s">
         <v>1892</v>
@@ -9484,13 +9472,13 @@
         <v>1893</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>1891</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="11" t="s">
@@ -9520,11 +9508,11 @@
         <v>162</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="11" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>1894</v>
@@ -9533,13 +9521,13 @@
         <v>1895</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="L64" s="11" t="s">
         <v>1891</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="11" t="s">
@@ -9569,11 +9557,11 @@
         <v>162</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="11" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>1896</v>
@@ -9582,13 +9570,13 @@
         <v>1897</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="L65" s="11" t="s">
         <v>1891</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="N65" s="11"/>
       <c r="O65" s="11" t="s">
@@ -9618,11 +9606,11 @@
         <v>162</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="11" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>1898</v>
@@ -9631,13 +9619,13 @@
         <v>1899</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="L66" s="11" t="s">
         <v>1891</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="11" t="s">
@@ -9667,11 +9655,11 @@
         <v>162</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="11" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>1900</v>
@@ -9680,13 +9668,13 @@
         <v>1901</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="L67" s="11" t="s">
         <v>1891</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="N67" s="11"/>
       <c r="O67" s="11" t="s">
@@ -9717,7 +9705,7 @@
         <v>106</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -21480,8 +21468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA255992-FDA4-43C6-8D11-151FA1909D95}">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="A452" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B461" sqref="B461"/>
+    <sheetView tabSelected="1" topLeftCell="A449" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -27207,7 +27195,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" s="47" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B459" s="47" t="s">
         <v>1902</v>
@@ -27216,12 +27204,12 @@
         <v>1903</v>
       </c>
       <c r="D459" s="47" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" s="47" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B460" s="47" t="s">
         <v>1904</v>
@@ -27230,12 +27218,12 @@
         <v>1905</v>
       </c>
       <c r="D460" s="47" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="47" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B461" s="47" t="s">
         <v>1906</v>
@@ -27244,43 +27232,43 @@
         <v>1907</v>
       </c>
       <c r="D461" s="47" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" s="47" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B462" s="47" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C462" s="47" t="s">
         <v>1908</v>
       </c>
-      <c r="C462" s="47" t="s">
-        <v>1909</v>
-      </c>
       <c r="D462" s="47" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="47" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B463" s="47" t="s">
-        <v>1910</v>
+        <v>1069</v>
       </c>
       <c r="C463" s="47" t="s">
-        <v>1911</v>
+        <v>1070</v>
       </c>
       <c r="D463" s="47" t="s">
-        <v>1940</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="47" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B464" s="47" t="s">
-        <v>1912</v>
+        <v>1104</v>
       </c>
       <c r="C464" s="47" t="s">
         <v>1105</v>
@@ -27291,35 +27279,35 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A466" s="26" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="B466" s="26" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="C466" s="26" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="D466" s="26" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A467" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B467" s="26" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C467" s="26" t="s">
         <v>1931</v>
       </c>
-      <c r="B467" s="26" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C467" s="26" t="s">
-        <v>1935</v>
-      </c>
       <c r="D467" s="26" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A468" s="26" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="B468" s="26" t="s">
         <v>1100</v>
@@ -27333,7 +27321,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A470" s="26" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="B470" s="26" t="s">
         <v>1097</v>
@@ -27347,7 +27335,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A471" s="26" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="B471" s="26" t="s">
         <v>1100</v>
@@ -27366,26 +27354,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6c4a5f2-8fa1-4399-adba-98b13265f581" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080E85EC637DE394385C88CEC49596DF4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbf0b56eb1933deadc0c0cd1cf77f18f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0abf2ae5-e878-4ccc-836e-24fe06428412" xmlns:ns3="a6c4a5f2-8fa1-4399-adba-98b13265f581" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10b7c0e23eaaa218a26b41bf2b5f2f3d" ns2:_="" ns3:_="">
     <xsd:import namespace="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
@@ -27580,26 +27548,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4676863E-963D-4151-9B18-83A7B5BD8FFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
-    <ds:schemaRef ds:uri="a6c4a5f2-8fa1-4399-adba-98b13265f581"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6c4a5f2-8fa1-4399-adba-98b13265f581" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF96905-2111-4460-93B2-5DBBCF58EFBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27616,4 +27585,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4676863E-963D-4151-9B18-83A7B5BD8FFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
+    <ds:schemaRef ds:uri="a6c4a5f2-8fa1-4399-adba-98b13265f581"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data-raw/REACH_2024_MSNA-kobo-tool_draft_v10.xlsx
+++ b/data-raw/REACH_2024_MSNA-kobo-tool_draft_v10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D049434-AF3B-45B1-9DFF-BF2C581147CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADB7B77-80F7-48AF-AF3A-EA2EB2F1DF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -5850,40 +5850,22 @@
     <t>${ind_age} &gt;= 5</t>
   </si>
   <si>
-    <t>difficulty_seeing</t>
-  </si>
-  <si>
     <t>Does he/she has difficulty seeing, even if wearing glasses? Would you say…</t>
   </si>
   <si>
     <t>Read response options out loud.</t>
   </si>
   <si>
-    <t>difficulty_hearing</t>
-  </si>
-  <si>
     <t>Does he/she has difficulty hearing, even if using a hearing aid(s)? Would you say…</t>
   </si>
   <si>
-    <t>difficulty_walking</t>
-  </si>
-  <si>
     <t>Does he/she has difficulty walking or climbing steps? Would you say…</t>
   </si>
   <si>
-    <t>difficulty_remembering</t>
-  </si>
-  <si>
     <t>Does he/she has difficulty remembering or concentrating? Would you say…</t>
   </si>
   <si>
-    <t>difficulty_self_care</t>
-  </si>
-  <si>
     <t>Does he/she has difficulty with self-care, such as washing all over or dressing? Would you say…</t>
-  </si>
-  <si>
-    <t>difficulty_communicating</t>
   </si>
   <si>
     <t>Using his/her usual language, does he/she has difficulty communicating, for example understanding or being understood? Would you say…</t>
@@ -6084,6 +6066,24 @@
   </si>
   <si>
     <t>cannot_do</t>
+  </si>
+  <si>
+    <t>wgq_vision</t>
+  </si>
+  <si>
+    <t>wgq_hearing</t>
+  </si>
+  <si>
+    <t>wgq_mobility</t>
+  </si>
+  <si>
+    <t>wgq_cognition</t>
+  </si>
+  <si>
+    <t>wgq_self_care</t>
+  </si>
+  <si>
+    <t>wgq_communication</t>
   </si>
 </sst>
 </file>
@@ -6249,7 +6249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6379,9 +6379,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6636,13 +6633,13 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6650,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6667,41 +6664,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F2087-EBA3-4A4D-855A-29B5D74B1D94}">
   <dimension ref="A1:Y525"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="25" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="25" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="39.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.25" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="3" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="3" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="5.59765625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.69921875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.69921875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="3" customWidth="1"/>
     <col min="18" max="19" width="9" style="3"/>
     <col min="20" max="20" width="16.5" style="3" customWidth="1"/>
     <col min="21" max="21" width="15.5" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="17.19921875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="16.59765625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="12.25" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17.25" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16.625" style="3" customWidth="1"/>
     <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" s="43" customFormat="1" ht="12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:24" s="43" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B1" s="42" t="s">
         <v>4</v>
       </c>
@@ -6772,7 +6769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
         <v>1</v>
       </c>
@@ -6807,7 +6804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -6840,7 +6837,7 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -6873,7 +6870,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>1</v>
       </c>
@@ -6906,7 +6903,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>1</v>
       </c>
@@ -6939,7 +6936,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>1</v>
       </c>
@@ -6974,7 +6971,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>1</v>
       </c>
@@ -7011,7 +7008,7 @@
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
     </row>
-    <row r="9" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>1</v>
       </c>
@@ -7058,7 +7055,7 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -7105,7 +7102,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>1</v>
       </c>
@@ -7152,7 +7149,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>1</v>
       </c>
@@ -7205,7 +7202,7 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>1</v>
       </c>
@@ -7252,7 +7249,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>1</v>
       </c>
@@ -7301,7 +7298,7 @@
       </c>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>1</v>
       </c>
@@ -7350,7 +7347,7 @@
       </c>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>1</v>
       </c>
@@ -7399,7 +7396,7 @@
       </c>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -7448,7 +7445,7 @@
       </c>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>1</v>
       </c>
@@ -7491,7 +7488,7 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>1</v>
       </c>
@@ -7534,7 +7531,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
     </row>
-    <row r="20" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>1</v>
       </c>
@@ -7581,7 +7578,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
     </row>
-    <row r="21" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>1</v>
       </c>
@@ -7614,7 +7611,7 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
     </row>
-    <row r="22" spans="2:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>1</v>
       </c>
@@ -7653,7 +7650,7 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
     </row>
-    <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>1</v>
       </c>
@@ -7690,7 +7687,7 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
     </row>
-    <row r="24" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>1</v>
       </c>
@@ -7737,7 +7734,7 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
     </row>
-    <row r="25" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>1</v>
       </c>
@@ -7790,7 +7787,7 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
     </row>
-    <row r="26" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>1</v>
       </c>
@@ -7837,7 +7834,7 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
     </row>
-    <row r="27" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>1</v>
       </c>
@@ -7886,7 +7883,7 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
     </row>
-    <row r="28" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>1</v>
       </c>
@@ -7941,7 +7938,7 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
     </row>
-    <row r="29" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>1</v>
       </c>
@@ -7992,7 +7989,7 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
     </row>
-    <row r="30" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>1</v>
       </c>
@@ -8049,7 +8046,7 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
     </row>
-    <row r="31" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>1</v>
       </c>
@@ -8094,7 +8091,7 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
     </row>
-    <row r="32" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>1</v>
       </c>
@@ -8129,7 +8126,7 @@
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
     </row>
-    <row r="33" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>1</v>
       </c>
@@ -8172,7 +8169,7 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
     </row>
-    <row r="34" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>1</v>
       </c>
@@ -8215,7 +8212,7 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
     </row>
-    <row r="35" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>1</v>
       </c>
@@ -8258,7 +8255,7 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
     </row>
-    <row r="36" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>1</v>
       </c>
@@ -8295,7 +8292,7 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
     </row>
-    <row r="37" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>1</v>
       </c>
@@ -8342,7 +8339,7 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
     </row>
-    <row r="38" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>1</v>
       </c>
@@ -8399,7 +8396,7 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
     </row>
-    <row r="39" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>1</v>
       </c>
@@ -8436,7 +8433,7 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
     </row>
-    <row r="40" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>1</v>
       </c>
@@ -8473,7 +8470,7 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
     </row>
-    <row r="41" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>1</v>
       </c>
@@ -8514,7 +8511,7 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
     </row>
-    <row r="42" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>1</v>
       </c>
@@ -8555,7 +8552,7 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
     </row>
-    <row r="43" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>1</v>
       </c>
@@ -8604,7 +8601,7 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
     </row>
-    <row r="44" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>1</v>
       </c>
@@ -8649,7 +8646,7 @@
       <c r="W44" s="23"/>
       <c r="X44" s="23"/>
     </row>
-    <row r="45" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>1</v>
       </c>
@@ -8694,7 +8691,7 @@
       <c r="W45" s="23"/>
       <c r="X45" s="23"/>
     </row>
-    <row r="46" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>1</v>
       </c>
@@ -8739,7 +8736,7 @@
       <c r="W46" s="23"/>
       <c r="X46" s="23"/>
     </row>
-    <row r="47" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>1</v>
       </c>
@@ -8784,7 +8781,7 @@
       <c r="W47" s="23"/>
       <c r="X47" s="23"/>
     </row>
-    <row r="48" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>1</v>
       </c>
@@ -8829,7 +8826,7 @@
       <c r="W48" s="23"/>
       <c r="X48" s="23"/>
     </row>
-    <row r="49" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>1</v>
       </c>
@@ -8874,7 +8871,7 @@
       <c r="W49" s="23"/>
       <c r="X49" s="23"/>
     </row>
-    <row r="50" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>1</v>
       </c>
@@ -8919,7 +8916,7 @@
       <c r="W50" s="23"/>
       <c r="X50" s="23"/>
     </row>
-    <row r="51" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>1</v>
       </c>
@@ -8962,7 +8959,7 @@
       <c r="W51" s="23"/>
       <c r="X51" s="23"/>
     </row>
-    <row r="52" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>1</v>
       </c>
@@ -9007,7 +9004,7 @@
       <c r="W52" s="23"/>
       <c r="X52" s="23"/>
     </row>
-    <row r="53" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>1</v>
       </c>
@@ -9052,7 +9049,7 @@
       <c r="W53" s="23"/>
       <c r="X53" s="23"/>
     </row>
-    <row r="54" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>1</v>
       </c>
@@ -9095,7 +9092,7 @@
       <c r="W54" s="23"/>
       <c r="X54" s="23"/>
     </row>
-    <row r="55" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>2</v>
       </c>
@@ -9113,10 +9110,10 @@
         <v>1887</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
@@ -9134,7 +9131,7 @@
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
     </row>
-    <row r="56" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>2</v>
       </c>
@@ -9152,10 +9149,10 @@
         <v>1886</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
@@ -9171,7 +9168,7 @@
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
     </row>
-    <row r="57" spans="2:24" ht="13.8" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:24" ht="12.75" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>2</v>
       </c>
@@ -9185,20 +9182,20 @@
         <v>162</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="11" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -9209,14 +9206,14 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="48"/>
+      <c r="S57" s="47"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
     </row>
-    <row r="58" spans="2:24" ht="13.8" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:24" ht="12.75" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>2</v>
       </c>
@@ -9230,20 +9227,20 @@
         <v>162</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="11" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
@@ -9252,17 +9249,17 @@
         <v>1097</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="Q58" s="11"/>
-      <c r="S58" s="48"/>
+      <c r="S58" s="47"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
     </row>
-    <row r="59" spans="2:24" ht="13.8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:24" ht="12.75" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>2</v>
       </c>
@@ -9276,20 +9273,20 @@
         <v>162</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
@@ -9298,17 +9295,17 @@
         <v>1097</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="Q59" s="11"/>
-      <c r="S59" s="48"/>
+      <c r="S59" s="47"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
     </row>
-    <row r="60" spans="2:24" ht="13.8" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:24" ht="12.75" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>2</v>
       </c>
@@ -9322,20 +9319,20 @@
         <v>162</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
@@ -9344,10 +9341,10 @@
         <v>1097</v>
       </c>
       <c r="P60" s="11" t="s">
-        <v>1919</v>
-      </c>
-      <c r="Q60" s="48" t="s">
-        <v>1920</v>
+        <v>1913</v>
+      </c>
+      <c r="Q60" s="47" t="s">
+        <v>1914</v>
       </c>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
@@ -9355,7 +9352,7 @@
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
     </row>
-    <row r="61" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>2</v>
       </c>
@@ -9370,13 +9367,13 @@
         <v>38</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
@@ -9391,12 +9388,12 @@
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
       <c r="V61" s="14" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="W61" s="14"/>
       <c r="X61" s="14"/>
     </row>
-    <row r="62" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>2</v>
       </c>
@@ -9410,26 +9407,26 @@
         <v>162</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="11" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="I62" s="11" t="s">
+        <v>1961</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>1889</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="K62" s="11" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L62" s="11" t="s">
         <v>1890</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>1958</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>1891</v>
-      </c>
       <c r="M62" s="11" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="N62" s="11"/>
       <c r="O62" s="11" t="s">
@@ -9445,7 +9442,7 @@
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
     </row>
-    <row r="63" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>2</v>
       </c>
@@ -9459,26 +9456,26 @@
         <v>162</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="11" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>1892</v>
+        <v>1962</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="11" t="s">
@@ -9494,7 +9491,7 @@
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
     </row>
-    <row r="64" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>2</v>
       </c>
@@ -9508,26 +9505,26 @@
         <v>162</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="11" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>1894</v>
+        <v>1963</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="11" t="s">
@@ -9543,7 +9540,7 @@
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
     </row>
-    <row r="65" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>2</v>
       </c>
@@ -9557,26 +9554,26 @@
         <v>162</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="11" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>1896</v>
+        <v>1964</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="N65" s="11"/>
       <c r="O65" s="11" t="s">
@@ -9592,7 +9589,7 @@
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
     </row>
-    <row r="66" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>2</v>
       </c>
@@ -9606,26 +9603,26 @@
         <v>162</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="11" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>1898</v>
+        <v>1965</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="11" t="s">
@@ -9641,7 +9638,7 @@
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
     </row>
-    <row r="67" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>2</v>
       </c>
@@ -9655,26 +9652,26 @@
         <v>162</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="11" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>1900</v>
+        <v>1966</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="N67" s="11"/>
       <c r="O67" s="11" t="s">
@@ -9690,7 +9687,7 @@
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
     </row>
-    <row r="68" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>2</v>
       </c>
@@ -9705,7 +9702,7 @@
         <v>106</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -9723,7 +9720,7 @@
       <c r="W68" s="14"/>
       <c r="X68" s="14"/>
     </row>
-    <row r="69" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>2</v>
       </c>
@@ -9756,7 +9753,7 @@
       <c r="W69" s="14"/>
       <c r="X69" s="14"/>
     </row>
-    <row r="70" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>1</v>
       </c>
@@ -9789,7 +9786,7 @@
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
     </row>
-    <row r="71" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>1</v>
       </c>
@@ -9826,7 +9823,7 @@
       <c r="W71" s="23"/>
       <c r="X71" s="23"/>
     </row>
-    <row r="72" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>1</v>
       </c>
@@ -9863,7 +9860,7 @@
       <c r="W72" s="23"/>
       <c r="X72" s="23"/>
     </row>
-    <row r="73" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B73" s="9">
         <v>1</v>
       </c>
@@ -9900,7 +9897,7 @@
       <c r="W73" s="23"/>
       <c r="X73" s="23"/>
     </row>
-    <row r="74" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B74" s="9">
         <v>1</v>
       </c>
@@ -9937,7 +9934,7 @@
       <c r="W74" s="23"/>
       <c r="X74" s="23"/>
     </row>
-    <row r="75" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B75" s="9">
         <v>1</v>
       </c>
@@ -9974,7 +9971,7 @@
       <c r="W75" s="23"/>
       <c r="X75" s="23"/>
     </row>
-    <row r="76" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B76" s="9">
         <v>1</v>
       </c>
@@ -10011,7 +10008,7 @@
       <c r="W76" s="23"/>
       <c r="X76" s="23"/>
     </row>
-    <row r="77" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B77" s="9">
         <v>1</v>
       </c>
@@ -10048,7 +10045,7 @@
       <c r="W77" s="23"/>
       <c r="X77" s="23"/>
     </row>
-    <row r="78" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B78" s="9">
         <v>1</v>
       </c>
@@ -10085,7 +10082,7 @@
       <c r="W78" s="23"/>
       <c r="X78" s="23"/>
     </row>
-    <row r="79" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B79" s="9">
         <v>1</v>
       </c>
@@ -10122,7 +10119,7 @@
       <c r="W79" s="23"/>
       <c r="X79" s="23"/>
     </row>
-    <row r="80" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B80" s="9">
         <v>1</v>
       </c>
@@ -10159,7 +10156,7 @@
       <c r="W80" s="23"/>
       <c r="X80" s="23"/>
     </row>
-    <row r="81" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B81" s="9">
         <v>1</v>
       </c>
@@ -10196,7 +10193,7 @@
       <c r="W81" s="23"/>
       <c r="X81" s="23"/>
     </row>
-    <row r="82" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B82" s="9">
         <v>1</v>
       </c>
@@ -10233,7 +10230,7 @@
       <c r="W82" s="23"/>
       <c r="X82" s="23"/>
     </row>
-    <row r="83" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9">
         <v>1</v>
       </c>
@@ -10270,7 +10267,7 @@
       <c r="W83" s="14"/>
       <c r="X83" s="14"/>
     </row>
-    <row r="84" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9">
         <v>1</v>
       </c>
@@ -10307,7 +10304,7 @@
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
     </row>
-    <row r="85" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B85" s="9">
         <v>1</v>
       </c>
@@ -10352,7 +10349,7 @@
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
     </row>
-    <row r="86" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B86" s="9">
         <v>1</v>
       </c>
@@ -10409,7 +10406,7 @@
       <c r="W86" s="11"/>
       <c r="X86" s="11"/>
     </row>
-    <row r="87" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B87" s="9">
         <v>1</v>
       </c>
@@ -10458,7 +10455,7 @@
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
     </row>
-    <row r="88" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B88" s="9">
         <v>1</v>
       </c>
@@ -10503,7 +10500,7 @@
       <c r="W88" s="11"/>
       <c r="X88" s="11"/>
     </row>
-    <row r="89" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B89" s="9">
         <v>1</v>
       </c>
@@ -10560,7 +10557,7 @@
       <c r="W89" s="11"/>
       <c r="X89" s="11"/>
     </row>
-    <row r="90" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B90" s="9">
         <v>1</v>
       </c>
@@ -10609,7 +10606,7 @@
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
     </row>
-    <row r="91" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B91" s="9">
         <v>1</v>
       </c>
@@ -10668,7 +10665,7 @@
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
     </row>
-    <row r="92" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B92" s="9">
         <v>1</v>
       </c>
@@ -10717,7 +10714,7 @@
       <c r="W92" s="11"/>
       <c r="X92" s="11"/>
     </row>
-    <row r="93" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B93" s="9">
         <v>1</v>
       </c>
@@ -10766,7 +10763,7 @@
       <c r="W93" s="11"/>
       <c r="X93" s="11"/>
     </row>
-    <row r="94" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B94" s="9">
         <v>1</v>
       </c>
@@ -10813,7 +10810,7 @@
       <c r="W94" s="11"/>
       <c r="X94" s="11"/>
     </row>
-    <row r="95" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="9">
         <v>1</v>
       </c>
@@ -10850,7 +10847,7 @@
       <c r="W95" s="14"/>
       <c r="X95" s="14"/>
     </row>
-    <row r="96" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="9">
         <v>1</v>
       </c>
@@ -10889,7 +10886,7 @@
       <c r="W96" s="14"/>
       <c r="X96" s="14"/>
     </row>
-    <row r="97" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B97" s="9">
         <v>1</v>
       </c>
@@ -10926,7 +10923,7 @@
       <c r="W97" s="11"/>
       <c r="X97" s="11"/>
     </row>
-    <row r="98" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B98" s="9">
         <v>1</v>
       </c>
@@ -10961,7 +10958,7 @@
       <c r="W98" s="20"/>
       <c r="X98" s="20"/>
     </row>
-    <row r="99" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B99" s="9">
         <v>1</v>
       </c>
@@ -10996,7 +10993,7 @@
       <c r="W99" s="11"/>
       <c r="X99" s="11"/>
     </row>
-    <row r="100" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B100" s="9">
         <v>1</v>
       </c>
@@ -11031,7 +11028,7 @@
       <c r="W100" s="11"/>
       <c r="X100" s="11"/>
     </row>
-    <row r="101" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B101" s="9">
         <v>1</v>
       </c>
@@ -11066,7 +11063,7 @@
       <c r="W101" s="11"/>
       <c r="X101" s="11"/>
     </row>
-    <row r="102" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B102" s="9">
         <v>1</v>
       </c>
@@ -11101,7 +11098,7 @@
       <c r="W102" s="11"/>
       <c r="X102" s="11"/>
     </row>
-    <row r="103" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="10"/>
@@ -11132,7 +11129,7 @@
       <c r="W103" s="11"/>
       <c r="X103" s="11"/>
     </row>
-    <row r="104" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B104" s="9">
         <v>1</v>
       </c>
@@ -11181,7 +11178,7 @@
       <c r="W104" s="11"/>
       <c r="X104" s="11"/>
     </row>
-    <row r="105" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B105" s="9">
         <v>1</v>
       </c>
@@ -11230,7 +11227,7 @@
       <c r="W105" s="11"/>
       <c r="X105" s="11"/>
     </row>
-    <row r="106" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B106" s="9">
         <v>1</v>
       </c>
@@ -11277,7 +11274,7 @@
       <c r="W106" s="11"/>
       <c r="X106" s="11"/>
     </row>
-    <row r="107" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B107" s="9">
         <v>1</v>
       </c>
@@ -11326,7 +11323,7 @@
       <c r="W107" s="11"/>
       <c r="X107" s="11"/>
     </row>
-    <row r="108" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B108" s="9">
         <v>1</v>
       </c>
@@ -11375,7 +11372,7 @@
       <c r="W108" s="11"/>
       <c r="X108" s="11"/>
     </row>
-    <row r="109" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B109" s="9">
         <v>1</v>
       </c>
@@ -11424,7 +11421,7 @@
       <c r="W109" s="11"/>
       <c r="X109" s="11"/>
     </row>
-    <row r="110" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B110" s="9">
         <v>1</v>
       </c>
@@ -11473,7 +11470,7 @@
       <c r="W110" s="11"/>
       <c r="X110" s="11"/>
     </row>
-    <row r="111" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B111" s="9">
         <v>1</v>
       </c>
@@ -11522,7 +11519,7 @@
       <c r="W111" s="11"/>
       <c r="X111" s="11"/>
     </row>
-    <row r="112" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B112" s="9">
         <v>1</v>
       </c>
@@ -11571,7 +11568,7 @@
       <c r="W112" s="11"/>
       <c r="X112" s="11"/>
     </row>
-    <row r="113" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B113" s="9">
         <v>1</v>
       </c>
@@ -11604,7 +11601,7 @@
       <c r="W113" s="20"/>
       <c r="X113" s="20"/>
     </row>
-    <row r="114" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9">
         <v>1</v>
       </c>
@@ -11641,7 +11638,7 @@
       <c r="W114" s="14"/>
       <c r="X114" s="14"/>
     </row>
-    <row r="115" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9">
         <v>1</v>
       </c>
@@ -11678,7 +11675,7 @@
       <c r="W115" s="14"/>
       <c r="X115" s="14"/>
     </row>
-    <row r="116" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B116" s="9">
         <v>1</v>
       </c>
@@ -11715,7 +11712,7 @@
       <c r="W116" s="11"/>
       <c r="X116" s="11"/>
     </row>
-    <row r="117" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B117" s="9">
         <v>1</v>
       </c>
@@ -11766,7 +11763,7 @@
       <c r="W117" s="11"/>
       <c r="X117" s="11"/>
     </row>
-    <row r="118" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B118" s="9">
         <v>1</v>
       </c>
@@ -11817,7 +11814,7 @@
       <c r="W118" s="11"/>
       <c r="X118" s="11"/>
     </row>
-    <row r="119" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B119" s="9">
         <v>1</v>
       </c>
@@ -11866,7 +11863,7 @@
       <c r="W119" s="11"/>
       <c r="X119" s="11"/>
     </row>
-    <row r="120" spans="2:24" ht="132" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B120" s="9">
         <v>1</v>
       </c>
@@ -11897,10 +11894,10 @@
       <c r="K120" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="L120" s="46" t="s">
+      <c r="L120" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="M120" s="46" t="s">
+      <c r="M120" s="11" t="s">
         <v>415</v>
       </c>
       <c r="N120" s="11"/>
@@ -11925,7 +11922,7 @@
       <c r="W120" s="11"/>
       <c r="X120" s="11"/>
     </row>
-    <row r="121" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B121" s="9">
         <v>1</v>
       </c>
@@ -11974,7 +11971,7 @@
       <c r="W121" s="11"/>
       <c r="X121" s="11"/>
     </row>
-    <row r="122" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B122" s="9">
         <v>1</v>
       </c>
@@ -12023,7 +12020,7 @@
       <c r="W122" s="11"/>
       <c r="X122" s="11"/>
     </row>
-    <row r="123" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B123" s="9">
         <v>1</v>
       </c>
@@ -12078,7 +12075,7 @@
       <c r="W123" s="11"/>
       <c r="X123" s="11"/>
     </row>
-    <row r="124" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B124" s="9">
         <v>1</v>
       </c>
@@ -12127,7 +12124,7 @@
       <c r="W124" s="11"/>
       <c r="X124" s="11"/>
     </row>
-    <row r="125" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B125" s="9">
         <v>1</v>
       </c>
@@ -12176,7 +12173,7 @@
       <c r="W125" s="11"/>
       <c r="X125" s="11"/>
     </row>
-    <row r="126" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B126" s="9">
         <v>1</v>
       </c>
@@ -12231,7 +12228,7 @@
       <c r="W126" s="11"/>
       <c r="X126" s="11"/>
     </row>
-    <row r="127" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B127" s="9">
         <v>1</v>
       </c>
@@ -12280,7 +12277,7 @@
       <c r="W127" s="11"/>
       <c r="X127" s="11"/>
     </row>
-    <row r="128" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B128" s="9">
         <v>1</v>
       </c>
@@ -12329,7 +12326,7 @@
       <c r="W128" s="11"/>
       <c r="X128" s="11"/>
     </row>
-    <row r="129" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B129" s="9">
         <v>1</v>
       </c>
@@ -12384,7 +12381,7 @@
       <c r="W129" s="11"/>
       <c r="X129" s="11"/>
     </row>
-    <row r="130" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B130" s="9">
         <v>1</v>
       </c>
@@ -12433,7 +12430,7 @@
       <c r="W130" s="11"/>
       <c r="X130" s="11"/>
     </row>
-    <row r="131" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B131" s="9">
         <v>1</v>
       </c>
@@ -12482,7 +12479,7 @@
       <c r="W131" s="11"/>
       <c r="X131" s="11"/>
     </row>
-    <row r="132" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B132" s="9">
         <v>1</v>
       </c>
@@ -12537,7 +12534,7 @@
       <c r="W132" s="11"/>
       <c r="X132" s="11"/>
     </row>
-    <row r="133" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B133" s="9">
         <v>1</v>
       </c>
@@ -12586,7 +12583,7 @@
       <c r="W133" s="11"/>
       <c r="X133" s="11"/>
     </row>
-    <row r="134" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9">
         <v>1</v>
       </c>
@@ -12623,7 +12620,7 @@
       <c r="W134" s="14"/>
       <c r="X134" s="14"/>
     </row>
-    <row r="135" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9">
         <v>1</v>
       </c>
@@ -12660,7 +12657,7 @@
       <c r="W135" s="14"/>
       <c r="X135" s="14"/>
     </row>
-    <row r="136" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B136" s="9">
         <v>1</v>
       </c>
@@ -12711,7 +12708,7 @@
       <c r="W136" s="11"/>
       <c r="X136" s="11"/>
     </row>
-    <row r="137" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B137" s="9">
         <v>1</v>
       </c>
@@ -12764,7 +12761,7 @@
       <c r="W137" s="11"/>
       <c r="X137" s="11"/>
     </row>
-    <row r="138" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9">
         <v>1</v>
       </c>
@@ -12801,7 +12798,7 @@
       <c r="W138" s="14"/>
       <c r="X138" s="14"/>
     </row>
-    <row r="139" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9">
         <v>1</v>
       </c>
@@ -12838,7 +12835,7 @@
       <c r="W139" s="14"/>
       <c r="X139" s="14"/>
     </row>
-    <row r="140" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B140" s="9">
         <v>1</v>
       </c>
@@ -12887,7 +12884,7 @@
       <c r="W140" s="11"/>
       <c r="X140" s="11"/>
     </row>
-    <row r="141" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B141" s="9">
         <v>1</v>
       </c>
@@ -12938,7 +12935,7 @@
       <c r="W141" s="11"/>
       <c r="X141" s="11"/>
     </row>
-    <row r="142" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9">
         <v>1</v>
       </c>
@@ -12975,7 +12972,7 @@
       <c r="W142" s="14"/>
       <c r="X142" s="14"/>
     </row>
-    <row r="143" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B143" s="9">
         <v>1</v>
       </c>
@@ -13012,7 +13009,7 @@
       <c r="W143" s="14"/>
       <c r="X143" s="14"/>
     </row>
-    <row r="144" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B144" s="9">
         <v>1</v>
       </c>
@@ -13049,7 +13046,7 @@
       <c r="W144" s="11"/>
       <c r="X144" s="11"/>
     </row>
-    <row r="145" spans="2:25" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B145" s="9">
         <v>1</v>
       </c>
@@ -13097,7 +13094,7 @@
       <c r="X145" s="11"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" spans="2:25" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B146" s="9">
         <v>1</v>
       </c>
@@ -13147,7 +13144,7 @@
       <c r="X146" s="11"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" spans="2:25" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B147" s="9">
         <v>1</v>
       </c>
@@ -13197,7 +13194,7 @@
       <c r="X147" s="11"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" spans="2:25" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B148" s="9">
         <v>1</v>
       </c>
@@ -13253,7 +13250,7 @@
       <c r="X148" s="11"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" spans="2:25" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B149" s="9">
         <v>1</v>
       </c>
@@ -13307,7 +13304,7 @@
       <c r="X149" s="11"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" spans="2:25" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:25" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B150" s="9">
         <v>1</v>
       </c>
@@ -13355,7 +13352,7 @@
       <c r="X150" s="11"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B151" s="9">
         <v>1</v>
       </c>
@@ -13402,7 +13399,7 @@
       <c r="W151" s="11"/>
       <c r="X151" s="11"/>
     </row>
-    <row r="152" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B152" s="9">
         <v>1</v>
       </c>
@@ -13451,7 +13448,7 @@
       <c r="W152" s="11"/>
       <c r="X152" s="11"/>
     </row>
-    <row r="153" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B153" s="9">
         <v>1</v>
       </c>
@@ -13498,7 +13495,7 @@
       <c r="W153" s="11"/>
       <c r="X153" s="11"/>
     </row>
-    <row r="154" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B154" s="9">
         <v>1</v>
       </c>
@@ -13553,7 +13550,7 @@
       <c r="W154" s="11"/>
       <c r="X154" s="11"/>
     </row>
-    <row r="155" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B155" s="9">
         <v>1</v>
       </c>
@@ -13606,7 +13603,7 @@
       <c r="W155" s="11"/>
       <c r="X155" s="11"/>
     </row>
-    <row r="156" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B156" s="9">
         <v>1</v>
       </c>
@@ -13655,7 +13652,7 @@
       <c r="W156" s="11"/>
       <c r="X156" s="11"/>
     </row>
-    <row r="157" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B157" s="9">
         <v>1</v>
       </c>
@@ -13704,7 +13701,7 @@
       <c r="W157" s="11"/>
       <c r="X157" s="11"/>
     </row>
-    <row r="158" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B158" s="9">
         <v>1</v>
       </c>
@@ -13753,7 +13750,7 @@
       <c r="W158" s="11"/>
       <c r="X158" s="11"/>
     </row>
-    <row r="159" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B159" s="9">
         <v>1</v>
       </c>
@@ -13802,7 +13799,7 @@
       <c r="W159" s="11"/>
       <c r="X159" s="11"/>
     </row>
-    <row r="160" spans="2:25" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:25" ht="12" x14ac:dyDescent="0.3">
       <c r="B160" s="9">
         <v>1</v>
       </c>
@@ -13851,7 +13848,7 @@
       <c r="W160" s="11"/>
       <c r="X160" s="11"/>
     </row>
-    <row r="161" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B161" s="9">
         <v>1</v>
       </c>
@@ -13900,7 +13897,7 @@
       <c r="W161" s="11"/>
       <c r="X161" s="11"/>
     </row>
-    <row r="162" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B162" s="9">
         <v>1</v>
       </c>
@@ -13949,7 +13946,7 @@
       <c r="W162" s="11"/>
       <c r="X162" s="11"/>
     </row>
-    <row r="163" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B163" s="9">
         <v>1</v>
       </c>
@@ -13998,7 +13995,7 @@
       <c r="W163" s="11"/>
       <c r="X163" s="11"/>
     </row>
-    <row r="164" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B164" s="9">
         <v>1</v>
       </c>
@@ -14047,7 +14044,7 @@
       <c r="W164" s="11"/>
       <c r="X164" s="11"/>
     </row>
-    <row r="165" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B165" s="9">
         <v>1</v>
       </c>
@@ -14096,7 +14093,7 @@
       <c r="W165" s="11"/>
       <c r="X165" s="11"/>
     </row>
-    <row r="166" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B166" s="9">
         <v>1</v>
       </c>
@@ -14145,7 +14142,7 @@
       <c r="W166" s="11"/>
       <c r="X166" s="11"/>
     </row>
-    <row r="167" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9">
         <v>1</v>
       </c>
@@ -14182,7 +14179,7 @@
       <c r="W167" s="14"/>
       <c r="X167" s="14"/>
     </row>
-    <row r="168" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B168" s="9">
         <v>1</v>
       </c>
@@ -14219,7 +14216,7 @@
       <c r="W168" s="14"/>
       <c r="X168" s="14"/>
     </row>
-    <row r="169" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B169" s="9">
         <v>1</v>
       </c>
@@ -14256,7 +14253,7 @@
       <c r="W169" s="11"/>
       <c r="X169" s="11"/>
     </row>
-    <row r="170" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B170" s="9">
         <v>1</v>
       </c>
@@ -14308,7 +14305,7 @@
       <c r="W170" s="11"/>
       <c r="X170" s="11"/>
     </row>
-    <row r="171" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B171" s="9">
         <v>1</v>
       </c>
@@ -14360,7 +14357,7 @@
       <c r="W171" s="11"/>
       <c r="X171" s="11"/>
     </row>
-    <row r="172" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B172" s="9">
         <v>1</v>
       </c>
@@ -14412,7 +14409,7 @@
       <c r="W172" s="11"/>
       <c r="X172" s="11"/>
     </row>
-    <row r="173" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B173" s="9">
         <v>1</v>
       </c>
@@ -14464,7 +14461,7 @@
       <c r="W173" s="11"/>
       <c r="X173" s="11"/>
     </row>
-    <row r="174" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B174" s="9">
         <v>1</v>
       </c>
@@ -14516,7 +14513,7 @@
       <c r="W174" s="11"/>
       <c r="X174" s="11"/>
     </row>
-    <row r="175" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B175" s="9">
         <v>1</v>
       </c>
@@ -14568,7 +14565,7 @@
       <c r="W175" s="11"/>
       <c r="X175" s="11"/>
     </row>
-    <row r="176" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B176" s="9">
         <v>1</v>
       </c>
@@ -14620,7 +14617,7 @@
       <c r="W176" s="11"/>
       <c r="X176" s="11"/>
     </row>
-    <row r="177" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B177" s="9">
         <v>1</v>
       </c>
@@ -14672,7 +14669,7 @@
       <c r="W177" s="11"/>
       <c r="X177" s="11"/>
     </row>
-    <row r="178" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B178" s="9">
         <v>1</v>
       </c>
@@ -14724,7 +14721,7 @@
       <c r="W178" s="11"/>
       <c r="X178" s="11"/>
     </row>
-    <row r="179" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B179" s="9">
         <v>1</v>
       </c>
@@ -14777,7 +14774,7 @@
       <c r="W179" s="11"/>
       <c r="X179" s="11"/>
     </row>
-    <row r="180" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B180" s="9">
         <v>1</v>
       </c>
@@ -14830,7 +14827,7 @@
       <c r="W180" s="11"/>
       <c r="X180" s="11"/>
     </row>
-    <row r="181" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B181" s="9">
         <v>1</v>
       </c>
@@ -14883,7 +14880,7 @@
       <c r="W181" s="11"/>
       <c r="X181" s="11"/>
     </row>
-    <row r="182" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B182" s="9">
         <v>1</v>
       </c>
@@ -14936,7 +14933,7 @@
       <c r="W182" s="11"/>
       <c r="X182" s="11"/>
     </row>
-    <row r="183" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B183" s="9">
         <v>1</v>
       </c>
@@ -14989,7 +14986,7 @@
       <c r="W183" s="11"/>
       <c r="X183" s="11"/>
     </row>
-    <row r="184" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B184" s="9">
         <v>1</v>
       </c>
@@ -15036,7 +15033,7 @@
       <c r="W184" s="11"/>
       <c r="X184" s="11"/>
     </row>
-    <row r="185" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B185" s="9">
         <v>1</v>
       </c>
@@ -15085,7 +15082,7 @@
       <c r="W185" s="11"/>
       <c r="X185" s="11"/>
     </row>
-    <row r="186" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B186" s="9">
         <v>1</v>
       </c>
@@ -15132,7 +15129,7 @@
       <c r="W186" s="11"/>
       <c r="X186" s="11"/>
     </row>
-    <row r="187" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B187" s="9">
         <v>1</v>
       </c>
@@ -15181,7 +15178,7 @@
       <c r="W187" s="11"/>
       <c r="X187" s="11"/>
     </row>
-    <row r="188" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B188" s="9">
         <v>1</v>
       </c>
@@ -15228,7 +15225,7 @@
       <c r="W188" s="11"/>
       <c r="X188" s="11"/>
     </row>
-    <row r="189" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B189" s="9">
         <v>1</v>
       </c>
@@ -15277,7 +15274,7 @@
       <c r="W189" s="11"/>
       <c r="X189" s="11"/>
     </row>
-    <row r="190" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="9" t="s">
         <v>690</v>
       </c>
@@ -15326,7 +15323,7 @@
       <c r="W190" s="11"/>
       <c r="X190" s="11"/>
     </row>
-    <row r="191" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="9" t="s">
         <v>690</v>
       </c>
@@ -15375,7 +15372,7 @@
       <c r="W191" s="11"/>
       <c r="X191" s="11"/>
     </row>
-    <row r="192" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B192" s="9" t="s">
         <v>699</v>
       </c>
@@ -15422,7 +15419,7 @@
       <c r="W192" s="11"/>
       <c r="X192" s="11"/>
     </row>
-    <row r="193" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B193" s="9" t="s">
         <v>699</v>
       </c>
@@ -15469,7 +15466,7 @@
       <c r="W193" s="11"/>
       <c r="X193" s="11"/>
     </row>
-    <row r="194" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B194" s="9" t="s">
         <v>699</v>
       </c>
@@ -15516,7 +15513,7 @@
       <c r="W194" s="11"/>
       <c r="X194" s="11"/>
     </row>
-    <row r="195" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B195" s="9" t="s">
         <v>699</v>
       </c>
@@ -15563,7 +15560,7 @@
       <c r="W195" s="11"/>
       <c r="X195" s="11"/>
     </row>
-    <row r="196" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B196" s="9" t="s">
         <v>699</v>
       </c>
@@ -15610,7 +15607,7 @@
       <c r="W196" s="11"/>
       <c r="X196" s="11"/>
     </row>
-    <row r="197" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B197" s="9" t="s">
         <v>699</v>
       </c>
@@ -15657,7 +15654,7 @@
       <c r="W197" s="11"/>
       <c r="X197" s="11"/>
     </row>
-    <row r="198" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B198" s="9" t="s">
         <v>699</v>
       </c>
@@ -15704,7 +15701,7 @@
       <c r="W198" s="11"/>
       <c r="X198" s="11"/>
     </row>
-    <row r="199" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B199" s="9" t="s">
         <v>699</v>
       </c>
@@ -15751,7 +15748,7 @@
       <c r="W199" s="11"/>
       <c r="X199" s="11"/>
     </row>
-    <row r="200" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B200" s="9" t="s">
         <v>699</v>
       </c>
@@ -15798,7 +15795,7 @@
       <c r="W200" s="11"/>
       <c r="X200" s="11"/>
     </row>
-    <row r="201" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B201" s="9" t="s">
         <v>699</v>
       </c>
@@ -15845,7 +15842,7 @@
       <c r="W201" s="11"/>
       <c r="X201" s="11"/>
     </row>
-    <row r="202" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="9" t="s">
         <v>699</v>
       </c>
@@ -15900,7 +15897,7 @@
       <c r="W202" s="11"/>
       <c r="X202" s="11"/>
     </row>
-    <row r="203" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B203" s="9" t="s">
         <v>699</v>
       </c>
@@ -15949,7 +15946,7 @@
       <c r="W203" s="11"/>
       <c r="X203" s="11"/>
     </row>
-    <row r="204" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B204" s="9" t="s">
         <v>699</v>
       </c>
@@ -15996,7 +15993,7 @@
       <c r="W204" s="11"/>
       <c r="X204" s="11"/>
     </row>
-    <row r="205" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B205" s="9" t="s">
         <v>699</v>
       </c>
@@ -16043,7 +16040,7 @@
       <c r="W205" s="11"/>
       <c r="X205" s="11"/>
     </row>
-    <row r="206" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B206" s="9" t="s">
         <v>699</v>
       </c>
@@ -16090,7 +16087,7 @@
       <c r="W206" s="11"/>
       <c r="X206" s="11"/>
     </row>
-    <row r="207" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B207" s="9" t="s">
         <v>699</v>
       </c>
@@ -16137,7 +16134,7 @@
       <c r="W207" s="11"/>
       <c r="X207" s="11"/>
     </row>
-    <row r="208" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B208" s="9" t="s">
         <v>699</v>
       </c>
@@ -16184,7 +16181,7 @@
       <c r="W208" s="11"/>
       <c r="X208" s="11"/>
     </row>
-    <row r="209" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B209" s="9" t="s">
         <v>699</v>
       </c>
@@ -16231,7 +16228,7 @@
       <c r="W209" s="11"/>
       <c r="X209" s="11"/>
     </row>
-    <row r="210" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B210" s="9" t="s">
         <v>699</v>
       </c>
@@ -16278,7 +16275,7 @@
       <c r="W210" s="11"/>
       <c r="X210" s="11"/>
     </row>
-    <row r="211" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B211" s="9" t="s">
         <v>699</v>
       </c>
@@ -16325,7 +16322,7 @@
       <c r="W211" s="11"/>
       <c r="X211" s="11"/>
     </row>
-    <row r="212" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B212" s="9" t="s">
         <v>699</v>
       </c>
@@ -16372,7 +16369,7 @@
       <c r="W212" s="11"/>
       <c r="X212" s="11"/>
     </row>
-    <row r="213" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B213" s="9" t="s">
         <v>699</v>
       </c>
@@ -16419,7 +16416,7 @@
       <c r="W213" s="11"/>
       <c r="X213" s="11"/>
     </row>
-    <row r="214" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B214" s="9" t="s">
         <v>699</v>
       </c>
@@ -16474,7 +16471,7 @@
       <c r="W214" s="11"/>
       <c r="X214" s="11"/>
     </row>
-    <row r="215" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B215" s="9" t="s">
         <v>699</v>
       </c>
@@ -16523,7 +16520,7 @@
       <c r="W215" s="11"/>
       <c r="X215" s="11"/>
     </row>
-    <row r="216" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B216" s="9">
         <v>1</v>
       </c>
@@ -16560,7 +16557,7 @@
       <c r="W216" s="14"/>
       <c r="X216" s="14"/>
     </row>
-    <row r="217" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B217" s="9">
         <v>1</v>
       </c>
@@ -16597,7 +16594,7 @@
       <c r="W217" s="14"/>
       <c r="X217" s="14"/>
     </row>
-    <row r="218" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B218" s="9">
         <v>1</v>
       </c>
@@ -16634,7 +16631,7 @@
       <c r="W218" s="11"/>
       <c r="X218" s="11"/>
     </row>
-    <row r="219" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B219" s="9">
         <v>1</v>
       </c>
@@ -16687,7 +16684,7 @@
       <c r="W219" s="11"/>
       <c r="X219" s="11"/>
     </row>
-    <row r="220" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B220" s="9" t="s">
         <v>808</v>
       </c>
@@ -16738,7 +16735,7 @@
       <c r="W220" s="11"/>
       <c r="X220" s="11"/>
     </row>
-    <row r="221" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B221" s="9" t="s">
         <v>808</v>
       </c>
@@ -16793,7 +16790,7 @@
       <c r="W221" s="11"/>
       <c r="X221" s="11"/>
     </row>
-    <row r="222" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B222" s="9" t="s">
         <v>808</v>
       </c>
@@ -16848,7 +16845,7 @@
       <c r="W222" s="11"/>
       <c r="X222" s="11"/>
     </row>
-    <row r="223" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B223" s="9" t="s">
         <v>808</v>
       </c>
@@ -16903,7 +16900,7 @@
       <c r="W223" s="11"/>
       <c r="X223" s="11"/>
     </row>
-    <row r="224" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B224" s="9" t="s">
         <v>808</v>
       </c>
@@ -16958,7 +16955,7 @@
       <c r="W224" s="11"/>
       <c r="X224" s="11"/>
     </row>
-    <row r="225" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B225" s="9" t="s">
         <v>808</v>
       </c>
@@ -17013,7 +17010,7 @@
       <c r="W225" s="11"/>
       <c r="X225" s="11"/>
     </row>
-    <row r="226" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="226" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B226" s="9" t="s">
         <v>808</v>
       </c>
@@ -17068,7 +17065,7 @@
       <c r="W226" s="11"/>
       <c r="X226" s="11"/>
     </row>
-    <row r="227" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B227" s="9" t="s">
         <v>808</v>
       </c>
@@ -17123,7 +17120,7 @@
       <c r="W227" s="11"/>
       <c r="X227" s="11"/>
     </row>
-    <row r="228" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B228" s="9" t="s">
         <v>808</v>
       </c>
@@ -17178,7 +17175,7 @@
       <c r="W228" s="11"/>
       <c r="X228" s="11"/>
     </row>
-    <row r="229" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="229" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B229" s="9" t="s">
         <v>808</v>
       </c>
@@ -17233,7 +17230,7 @@
       <c r="W229" s="11"/>
       <c r="X229" s="11"/>
     </row>
-    <row r="230" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="230" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B230" s="9" t="s">
         <v>808</v>
       </c>
@@ -17288,7 +17285,7 @@
       <c r="W230" s="11"/>
       <c r="X230" s="11"/>
     </row>
-    <row r="231" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B231" s="9" t="s">
         <v>808</v>
       </c>
@@ -17343,7 +17340,7 @@
       <c r="W231" s="11"/>
       <c r="X231" s="11"/>
     </row>
-    <row r="232" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="232" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B232" s="9" t="s">
         <v>808</v>
       </c>
@@ -17390,7 +17387,7 @@
       <c r="W232" s="11"/>
       <c r="X232" s="11"/>
     </row>
-    <row r="233" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="233" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B233" s="9" t="s">
         <v>808</v>
       </c>
@@ -17447,7 +17444,7 @@
       <c r="W233" s="11"/>
       <c r="X233" s="11"/>
     </row>
-    <row r="234" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="234" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B234" s="9" t="s">
         <v>808</v>
       </c>
@@ -17496,7 +17493,7 @@
       <c r="W234" s="11"/>
       <c r="X234" s="11"/>
     </row>
-    <row r="235" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="235" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B235" s="9" t="s">
         <v>808</v>
       </c>
@@ -17551,7 +17548,7 @@
       <c r="W235" s="11"/>
       <c r="X235" s="11"/>
     </row>
-    <row r="236" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="236" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B236" s="9" t="s">
         <v>808</v>
       </c>
@@ -17606,7 +17603,7 @@
       <c r="W236" s="11"/>
       <c r="X236" s="11"/>
     </row>
-    <row r="237" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B237" s="9" t="s">
         <v>808</v>
       </c>
@@ -17661,7 +17658,7 @@
       <c r="W237" s="11"/>
       <c r="X237" s="11"/>
     </row>
-    <row r="238" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="238" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B238" s="9" t="s">
         <v>808</v>
       </c>
@@ -17716,7 +17713,7 @@
       <c r="W238" s="11"/>
       <c r="X238" s="11"/>
     </row>
-    <row r="239" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="239" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B239" s="9" t="s">
         <v>808</v>
       </c>
@@ -17771,7 +17768,7 @@
       <c r="W239" s="11"/>
       <c r="X239" s="11"/>
     </row>
-    <row r="240" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="240" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B240" s="9" t="s">
         <v>808</v>
       </c>
@@ -17826,7 +17823,7 @@
       <c r="W240" s="11"/>
       <c r="X240" s="11"/>
     </row>
-    <row r="241" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B241" s="9" t="s">
         <v>808</v>
       </c>
@@ -17881,7 +17878,7 @@
       <c r="W241" s="11"/>
       <c r="X241" s="11"/>
     </row>
-    <row r="242" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B242" s="9" t="s">
         <v>808</v>
       </c>
@@ -17936,7 +17933,7 @@
       <c r="W242" s="11"/>
       <c r="X242" s="11"/>
     </row>
-    <row r="243" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B243" s="9" t="s">
         <v>808</v>
       </c>
@@ -17991,7 +17988,7 @@
       <c r="W243" s="11"/>
       <c r="X243" s="11"/>
     </row>
-    <row r="244" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B244" s="9" t="s">
         <v>808</v>
       </c>
@@ -18046,7 +18043,7 @@
       <c r="W244" s="11"/>
       <c r="X244" s="11"/>
     </row>
-    <row r="245" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B245" s="9" t="s">
         <v>808</v>
       </c>
@@ -18101,7 +18098,7 @@
       <c r="W245" s="11"/>
       <c r="X245" s="11"/>
     </row>
-    <row r="246" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B246" s="9" t="s">
         <v>808</v>
       </c>
@@ -18148,7 +18145,7 @@
       <c r="W246" s="11"/>
       <c r="X246" s="11"/>
     </row>
-    <row r="247" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B247" s="9">
         <v>1</v>
       </c>
@@ -18185,7 +18182,7 @@
       <c r="W247" s="14"/>
       <c r="X247" s="14"/>
     </row>
-    <row r="248" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B248" s="9">
         <v>1</v>
       </c>
@@ -18222,7 +18219,7 @@
       <c r="W248" s="14"/>
       <c r="X248" s="14"/>
     </row>
-    <row r="249" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B249" s="9">
         <v>1</v>
       </c>
@@ -18259,7 +18256,7 @@
       <c r="W249" s="11"/>
       <c r="X249" s="11"/>
     </row>
-    <row r="250" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B250" s="9">
         <v>1</v>
       </c>
@@ -18294,7 +18291,7 @@
       <c r="W250" s="20"/>
       <c r="X250" s="20"/>
     </row>
-    <row r="251" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B251" s="9">
         <v>1</v>
       </c>
@@ -18329,7 +18326,7 @@
       <c r="W251" s="11"/>
       <c r="X251" s="11"/>
     </row>
-    <row r="252" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="252" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B252" s="9">
         <v>1</v>
       </c>
@@ -18364,7 +18361,7 @@
       <c r="W252" s="11"/>
       <c r="X252" s="11"/>
     </row>
-    <row r="253" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="253" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B253" s="9">
         <v>1</v>
       </c>
@@ -18399,7 +18396,7 @@
       <c r="W253" s="11"/>
       <c r="X253" s="11"/>
     </row>
-    <row r="254" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="254" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B254" s="9">
         <v>1</v>
       </c>
@@ -18434,7 +18431,7 @@
       <c r="W254" s="11"/>
       <c r="X254" s="11"/>
     </row>
-    <row r="255" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="255" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B255" s="9">
         <v>1</v>
       </c>
@@ -18481,7 +18478,7 @@
       <c r="W255" s="11"/>
       <c r="X255" s="11"/>
     </row>
-    <row r="256" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="256" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B256" s="9">
         <v>1</v>
       </c>
@@ -18534,7 +18531,7 @@
       <c r="W256" s="11"/>
       <c r="X256" s="11"/>
     </row>
-    <row r="257" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B257" s="9">
         <v>1</v>
       </c>
@@ -18585,7 +18582,7 @@
       <c r="W257" s="11"/>
       <c r="X257" s="11"/>
     </row>
-    <row r="258" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B258" s="9">
         <v>1</v>
       </c>
@@ -18634,7 +18631,7 @@
       <c r="W258" s="11"/>
       <c r="X258" s="11"/>
     </row>
-    <row r="259" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B259" s="9">
         <v>1</v>
       </c>
@@ -18667,7 +18664,7 @@
       <c r="W259" s="20"/>
       <c r="X259" s="20"/>
     </row>
-    <row r="260" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="260" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B260" s="9">
         <v>1</v>
       </c>
@@ -18716,7 +18713,7 @@
       <c r="W260" s="11"/>
       <c r="X260" s="11"/>
     </row>
-    <row r="261" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B261" s="9">
         <v>1</v>
       </c>
@@ -18753,7 +18750,7 @@
       <c r="W261" s="14"/>
       <c r="X261" s="14"/>
     </row>
-    <row r="262" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B262" s="9">
         <v>1</v>
       </c>
@@ -18792,7 +18789,7 @@
       <c r="W262" s="14"/>
       <c r="X262" s="14"/>
     </row>
-    <row r="263" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="263" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B263" s="9">
         <v>1</v>
       </c>
@@ -18829,7 +18826,7 @@
       <c r="W263" s="11"/>
       <c r="X263" s="11"/>
     </row>
-    <row r="264" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B264" s="9">
         <v>1</v>
       </c>
@@ -18864,7 +18861,7 @@
       <c r="W264" s="20"/>
       <c r="X264" s="20"/>
     </row>
-    <row r="265" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B265" s="9">
         <v>1</v>
       </c>
@@ -18899,7 +18896,7 @@
       <c r="W265" s="11"/>
       <c r="X265" s="11"/>
     </row>
-    <row r="266" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="266" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B266" s="9">
         <v>1</v>
       </c>
@@ -18934,7 +18931,7 @@
       <c r="W266" s="11"/>
       <c r="X266" s="11"/>
     </row>
-    <row r="267" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B267" s="9">
         <v>1</v>
       </c>
@@ -18969,7 +18966,7 @@
       <c r="W267" s="11"/>
       <c r="X267" s="11"/>
     </row>
-    <row r="268" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B268" s="9">
         <v>1</v>
       </c>
@@ -19004,7 +19001,7 @@
       <c r="W268" s="11"/>
       <c r="X268" s="11"/>
     </row>
-    <row r="269" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="269" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B269" s="9">
         <v>1</v>
       </c>
@@ -19039,7 +19036,7 @@
       <c r="W269" s="11"/>
       <c r="X269" s="11"/>
     </row>
-    <row r="270" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="270" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B270" s="9">
         <v>1</v>
       </c>
@@ -19074,7 +19071,7 @@
       <c r="W270" s="11"/>
       <c r="X270" s="11"/>
     </row>
-    <row r="271" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B271" s="9">
         <v>1</v>
       </c>
@@ -19109,7 +19106,7 @@
       <c r="W271" s="11"/>
       <c r="X271" s="11"/>
     </row>
-    <row r="272" spans="2:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="272" spans="2:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B272" s="9">
         <v>1</v>
       </c>
@@ -19144,7 +19141,7 @@
       <c r="W272" s="11"/>
       <c r="X272" s="11"/>
     </row>
-    <row r="273" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B273" s="9">
         <v>1</v>
       </c>
@@ -19193,7 +19190,7 @@
       <c r="W273" s="11"/>
       <c r="X273" s="11"/>
     </row>
-    <row r="274" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B274" s="9">
         <v>1</v>
       </c>
@@ -19244,7 +19241,7 @@
       <c r="W274" s="11"/>
       <c r="X274" s="11"/>
     </row>
-    <row r="275" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B275" s="9" t="s">
         <v>965</v>
       </c>
@@ -19295,7 +19292,7 @@
       <c r="W275" s="11"/>
       <c r="X275" s="11"/>
     </row>
-    <row r="276" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B276" s="9" t="s">
         <v>965</v>
       </c>
@@ -19348,7 +19345,7 @@
       <c r="W276" s="11"/>
       <c r="X276" s="11"/>
     </row>
-    <row r="277" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B277" s="9" t="s">
         <v>965</v>
       </c>
@@ -19401,7 +19398,7 @@
       <c r="W277" s="11"/>
       <c r="X277" s="11"/>
     </row>
-    <row r="278" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B278" s="9">
         <v>1</v>
       </c>
@@ -19434,7 +19431,7 @@
       <c r="W278" s="20"/>
       <c r="X278" s="20"/>
     </row>
-    <row r="279" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B279" s="9">
         <v>1</v>
       </c>
@@ -19473,7 +19470,7 @@
       <c r="W279" s="14"/>
       <c r="X279" s="14"/>
     </row>
-    <row r="280" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A280" s="31"/>
       <c r="B280" s="32">
         <v>1</v>
@@ -19502,8 +19499,8 @@
       <c r="L280" s="33"/>
       <c r="M280" s="33"/>
       <c r="N280" s="33"/>
-      <c r="O280" s="49"/>
-      <c r="P280" s="49"/>
+      <c r="O280" s="48"/>
+      <c r="P280" s="48"/>
       <c r="Q280" s="33"/>
       <c r="R280" s="33"/>
       <c r="S280" s="33"/>
@@ -19513,7 +19510,7 @@
       <c r="W280" s="33"/>
       <c r="X280" s="33"/>
     </row>
-    <row r="281" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B281" s="9">
         <v>1</v>
       </c>
@@ -19558,7 +19555,7 @@
       <c r="W281" s="11"/>
       <c r="X281" s="11"/>
     </row>
-    <row r="282" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A282" s="31"/>
       <c r="B282" s="32">
         <v>1</v>
@@ -19597,10 +19594,10 @@
         <v>997</v>
       </c>
       <c r="N282" s="35"/>
-      <c r="O282" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="P282" s="51"/>
+      <c r="O282" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P282" s="50"/>
       <c r="Q282" s="35"/>
       <c r="R282" s="35"/>
       <c r="S282" s="35"/>
@@ -19610,7 +19607,7 @@
       <c r="W282" s="35"/>
       <c r="X282" s="35"/>
     </row>
-    <row r="283" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A283" s="31"/>
       <c r="B283" s="32">
         <v>1</v>
@@ -19645,10 +19642,10 @@
       <c r="L283" s="38"/>
       <c r="M283" s="38"/>
       <c r="N283" s="38"/>
-      <c r="O283" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="P283" s="50"/>
+      <c r="O283" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P283" s="49"/>
       <c r="Q283" s="38"/>
       <c r="R283" s="38"/>
       <c r="S283" s="38"/>
@@ -19658,7 +19655,7 @@
       <c r="W283" s="38"/>
       <c r="X283" s="38"/>
     </row>
-    <row r="284" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A284" s="31"/>
       <c r="B284" s="32">
         <v>1</v>
@@ -19704,7 +19701,7 @@
       <c r="W284" s="35"/>
       <c r="X284" s="35"/>
     </row>
-    <row r="285" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A285" s="31"/>
       <c r="B285" s="32">
         <v>1</v>
@@ -19739,10 +19736,10 @@
       <c r="L285" s="38"/>
       <c r="M285" s="38"/>
       <c r="N285" s="38"/>
-      <c r="O285" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="P285" s="50"/>
+      <c r="O285" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P285" s="49"/>
       <c r="Q285" s="38"/>
       <c r="R285" s="38"/>
       <c r="S285" s="38"/>
@@ -19752,7 +19749,7 @@
       <c r="W285" s="38"/>
       <c r="X285" s="38"/>
     </row>
-    <row r="286" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A286" s="31"/>
       <c r="B286" s="32">
         <v>1</v>
@@ -19787,10 +19784,10 @@
       <c r="L286" s="35"/>
       <c r="M286" s="35"/>
       <c r="N286" s="35"/>
-      <c r="O286" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="P286" s="51"/>
+      <c r="O286" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P286" s="50"/>
       <c r="Q286" s="35"/>
       <c r="R286" s="35"/>
       <c r="S286" s="35"/>
@@ -19800,7 +19797,7 @@
       <c r="W286" s="35"/>
       <c r="X286" s="35"/>
     </row>
-    <row r="287" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A287" s="31"/>
       <c r="B287" s="32">
         <v>1</v>
@@ -19835,10 +19832,10 @@
       <c r="L287" s="38"/>
       <c r="M287" s="38"/>
       <c r="N287" s="38"/>
-      <c r="O287" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="P287" s="50"/>
+      <c r="O287" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P287" s="49"/>
       <c r="Q287" s="38"/>
       <c r="R287" s="38"/>
       <c r="S287" s="38"/>
@@ -19848,7 +19845,7 @@
       <c r="W287" s="38"/>
       <c r="X287" s="38"/>
     </row>
-    <row r="288" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A288" s="31"/>
       <c r="B288" s="32">
         <v>1</v>
@@ -19877,8 +19874,8 @@
       <c r="L288" s="33"/>
       <c r="M288" s="33"/>
       <c r="N288" s="33"/>
-      <c r="O288" s="49"/>
-      <c r="P288" s="49"/>
+      <c r="O288" s="48"/>
+      <c r="P288" s="48"/>
       <c r="Q288" s="33"/>
       <c r="R288" s="33"/>
       <c r="S288" s="33"/>
@@ -19888,7 +19885,7 @@
       <c r="W288" s="33"/>
       <c r="X288" s="33"/>
     </row>
-    <row r="289" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B289" s="9">
         <v>1</v>
       </c>
@@ -19927,7 +19924,7 @@
       <c r="W289" s="14"/>
       <c r="X289" s="14"/>
     </row>
-    <row r="290" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B290" s="9">
         <v>1</v>
       </c>
@@ -19966,7 +19963,7 @@
       </c>
       <c r="P290" s="41"/>
     </row>
-    <row r="291" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B291" s="9">
         <v>1</v>
       </c>
@@ -20011,7 +20008,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B292" s="9">
         <v>1</v>
       </c>
@@ -20052,7 +20049,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="A293" s="31"/>
       <c r="B293" s="9">
         <v>1</v>
@@ -20092,7 +20089,7 @@
       <c r="W293" s="33"/>
       <c r="X293" s="33"/>
     </row>
-    <row r="294" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B294" s="9">
         <v>1</v>
       </c>
@@ -20129,7 +20126,7 @@
       <c r="W294" s="14"/>
       <c r="X294" s="14"/>
     </row>
-    <row r="295" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B295" s="9">
         <v>1</v>
       </c>
@@ -20166,7 +20163,7 @@
       <c r="W295" s="14"/>
       <c r="X295" s="14"/>
     </row>
-    <row r="296" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B296" s="9">
         <v>1</v>
       </c>
@@ -20205,7 +20202,7 @@
       <c r="W296" s="11"/>
       <c r="X296" s="11"/>
     </row>
-    <row r="297" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B297" s="9">
         <v>1</v>
       </c>
@@ -20238,7 +20235,7 @@
       <c r="W297" s="14"/>
       <c r="X297" s="14"/>
     </row>
-    <row r="298" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B298" s="9">
         <v>1</v>
       </c>
@@ -20275,7 +20272,7 @@
       <c r="W298" s="11"/>
       <c r="X298" s="11"/>
     </row>
-    <row r="299" spans="1:24" ht="13.2" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:24" ht="12" x14ac:dyDescent="0.3">
       <c r="B299" s="9">
         <v>1</v>
       </c>
@@ -20314,1133 +20311,1133 @@
       <c r="W299" s="11"/>
       <c r="X299" s="11"/>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D300" s="5"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D301" s="5"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D302" s="5"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D303" s="5"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
       <c r="F304" s="7"/>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D305" s="5"/>
       <c r="E305" s="7"/>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D306" s="5"/>
       <c r="E306" s="7"/>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D307" s="5"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D308" s="5"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
       <c r="F357" s="7"/>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
       <c r="F359" s="7"/>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
       <c r="F363" s="7"/>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
       <c r="F373" s="7"/>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
       <c r="F375" s="7"/>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
       <c r="F382" s="7"/>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
       <c r="F383" s="7"/>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
       <c r="F385" s="7"/>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
       <c r="F386" s="7"/>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
       <c r="F395" s="7"/>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
       <c r="F397" s="7"/>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
       <c r="F399" s="7"/>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
       <c r="F400" s="7"/>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
       <c r="F401" s="7"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
       <c r="F403" s="7"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
       <c r="F404" s="7"/>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
       <c r="F405" s="7"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
       <c r="F406" s="7"/>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
       <c r="F407" s="7"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
       <c r="F409" s="7"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
       <c r="F410" s="7"/>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
       <c r="F411" s="7"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
       <c r="F412" s="7"/>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
       <c r="F413" s="7"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
       <c r="F414" s="7"/>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
       <c r="F415" s="7"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
       <c r="F417" s="7"/>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
       <c r="F418" s="7"/>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
       <c r="F419" s="7"/>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
       <c r="F420" s="7"/>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
       <c r="F421" s="7"/>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
       <c r="F422" s="7"/>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
       <c r="F423" s="7"/>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
       <c r="F425" s="7"/>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
       <c r="F426" s="7"/>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
       <c r="F427" s="7"/>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
       <c r="F428" s="7"/>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
       <c r="F429" s="7"/>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
       <c r="F430" s="7"/>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
       <c r="F431" s="7"/>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
       <c r="F435" s="7"/>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
       <c r="F437" s="7"/>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
       <c r="F439" s="7"/>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
       <c r="F441" s="7"/>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
       <c r="F459" s="7"/>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
       <c r="F460" s="7"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
       <c r="F461" s="7"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
       <c r="F462" s="7"/>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
       <c r="F463" s="7"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
       <c r="F465" s="7"/>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
       <c r="F466" s="7"/>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
       <c r="F467" s="7"/>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
       <c r="F468" s="7"/>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
       <c r="F469" s="7"/>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
       <c r="F470" s="7"/>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
       <c r="F471" s="7"/>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
       <c r="F472" s="7"/>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
       <c r="F473" s="7"/>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
       <c r="F474" s="7"/>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
       <c r="F475" s="7"/>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
       <c r="F476" s="7"/>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
       <c r="F477" s="7"/>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
       <c r="F478" s="7"/>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
       <c r="F479" s="7"/>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
       <c r="F480" s="7"/>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
       <c r="F481" s="7"/>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
       <c r="F482" s="7"/>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
       <c r="F483" s="7"/>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D484" s="7"/>
       <c r="E484" s="7"/>
       <c r="F484" s="7"/>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D485" s="7"/>
       <c r="E485" s="7"/>
       <c r="F485" s="7"/>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D486" s="7"/>
       <c r="E486" s="7"/>
       <c r="F486" s="7"/>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D487" s="7"/>
       <c r="E487" s="7"/>
       <c r="F487" s="7"/>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D488" s="7"/>
       <c r="E488" s="7"/>
       <c r="F488" s="7"/>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D489" s="7"/>
       <c r="E489" s="7"/>
       <c r="F489" s="7"/>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D490" s="7"/>
       <c r="E490" s="7"/>
       <c r="F490" s="7"/>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D491" s="7"/>
       <c r="E491" s="7"/>
       <c r="F491" s="7"/>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D492" s="7"/>
       <c r="E492" s="7"/>
       <c r="F492" s="7"/>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D493" s="7"/>
       <c r="E493" s="7"/>
       <c r="F493" s="7"/>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D494" s="7"/>
       <c r="E494" s="7"/>
       <c r="F494" s="7"/>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D495" s="7"/>
       <c r="E495" s="7"/>
       <c r="F495" s="7"/>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D496" s="7"/>
       <c r="E496" s="7"/>
       <c r="F496" s="7"/>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D497" s="7"/>
       <c r="E497" s="7"/>
       <c r="F497" s="7"/>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D498" s="7"/>
       <c r="E498" s="7"/>
       <c r="F498" s="7"/>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D499" s="7"/>
       <c r="E499" s="7"/>
       <c r="F499" s="7"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D500" s="7"/>
       <c r="E500" s="7"/>
       <c r="F500" s="7"/>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D501" s="7"/>
       <c r="E501" s="7"/>
       <c r="F501" s="7"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D502" s="7"/>
       <c r="E502" s="7"/>
       <c r="F502" s="7"/>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D503" s="7"/>
       <c r="E503" s="7"/>
       <c r="F503" s="7"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D504" s="7"/>
       <c r="E504" s="7"/>
       <c r="F504" s="7"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D505" s="7"/>
       <c r="E505" s="7"/>
       <c r="F505" s="7"/>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D506" s="7"/>
       <c r="E506" s="7"/>
       <c r="F506" s="7"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D507" s="7"/>
       <c r="E507" s="7"/>
       <c r="F507" s="7"/>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D508" s="7"/>
       <c r="E508" s="7"/>
       <c r="F508" s="7"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D509" s="7"/>
       <c r="E509" s="7"/>
       <c r="F509" s="7"/>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D510" s="7"/>
       <c r="E510" s="7"/>
       <c r="F510" s="5"/>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D511" s="7"/>
       <c r="E511" s="7"/>
       <c r="F511" s="5"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D512" s="7"/>
       <c r="E512" s="7"/>
       <c r="F512" s="5"/>
     </row>
-    <row r="513" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="513" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D513" s="7"/>
       <c r="E513" s="7"/>
       <c r="F513" s="5"/>
     </row>
-    <row r="514" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="514" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D514" s="7"/>
       <c r="E514" s="7"/>
       <c r="F514" s="5"/>
     </row>
-    <row r="515" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="515" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D515" s="7"/>
       <c r="E515" s="7"/>
       <c r="F515" s="7"/>
     </row>
-    <row r="516" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="516" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D516" s="7"/>
       <c r="E516" s="7"/>
       <c r="F516" s="7"/>
     </row>
-    <row r="517" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="517" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D517" s="7"/>
       <c r="E517" s="7"/>
       <c r="F517" s="7"/>
     </row>
-    <row r="518" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="518" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D518" s="7"/>
       <c r="E518" s="7"/>
       <c r="F518" s="7"/>
     </row>
-    <row r="519" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="519" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D519" s="7"/>
       <c r="E519" s="7"/>
       <c r="F519" s="7"/>
     </row>
-    <row r="520" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="520" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D520" s="7"/>
       <c r="E520" s="7"/>
       <c r="F520" s="7"/>
     </row>
-    <row r="521" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="521" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D521" s="7"/>
       <c r="E521" s="7"/>
       <c r="F521" s="7"/>
     </row>
-    <row r="522" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="522" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D522" s="7"/>
       <c r="E522" s="7"/>
       <c r="F522" s="7"/>
     </row>
-    <row r="523" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="523" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D523" s="7"/>
       <c r="E523" s="7"/>
       <c r="F523" s="7"/>
     </row>
-    <row r="524" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="524" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D524" s="7"/>
       <c r="E524" s="7"/>
       <c r="F524" s="7"/>
     </row>
-    <row r="525" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="525" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D525" s="7"/>
       <c r="E525" s="7"/>
       <c r="F525" s="7"/>
@@ -21468,21 +21465,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA255992-FDA4-43C6-8D11-151FA1909D95}">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B468" sqref="B468"/>
+    <sheetView topLeftCell="A339" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B352" sqref="B352:B367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.59765625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.69921875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="61.09765625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="61.125" style="26" customWidth="1"/>
     <col min="5" max="8" width="11.5" style="26" customWidth="1"/>
     <col min="9" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>1043</v>
       </c>
@@ -21508,7 +21505,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>1048</v>
       </c>
@@ -21522,7 +21519,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1048</v>
       </c>
@@ -21536,7 +21533,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1055</v>
       </c>
@@ -21550,7 +21547,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>1055</v>
       </c>
@@ -21564,7 +21561,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>1055</v>
       </c>
@@ -21578,7 +21575,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>1059</v>
       </c>
@@ -21592,7 +21589,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>1059</v>
       </c>
@@ -21606,7 +21603,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>1059</v>
       </c>
@@ -21620,7 +21617,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1059</v>
       </c>
@@ -21634,7 +21631,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>1072</v>
       </c>
@@ -21648,7 +21645,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>1072</v>
       </c>
@@ -21662,7 +21659,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>1077</v>
       </c>
@@ -21679,7 +21676,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>1077</v>
       </c>
@@ -21696,7 +21693,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>1077</v>
       </c>
@@ -21713,7 +21710,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>1081</v>
       </c>
@@ -21730,7 +21727,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>1081</v>
       </c>
@@ -21747,7 +21744,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>1081</v>
       </c>
@@ -21764,7 +21761,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>1081</v>
       </c>
@@ -21781,7 +21778,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1086</v>
       </c>
@@ -21798,7 +21795,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>1086</v>
       </c>
@@ -21815,7 +21812,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>1086</v>
       </c>
@@ -21832,7 +21829,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>1086</v>
       </c>
@@ -21849,7 +21846,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>1091</v>
       </c>
@@ -21866,7 +21863,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
         <v>1091</v>
       </c>
@@ -21883,7 +21880,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>1091</v>
       </c>
@@ -21900,7 +21897,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>1091</v>
       </c>
@@ -21917,7 +21914,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>1096</v>
       </c>
@@ -21931,7 +21928,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>1096</v>
       </c>
@@ -21945,7 +21942,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>1103</v>
       </c>
@@ -21959,7 +21956,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>1103</v>
       </c>
@@ -21973,7 +21970,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>1103</v>
       </c>
@@ -21987,7 +21984,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
         <v>1103</v>
       </c>
@@ -22001,7 +21998,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>1107</v>
       </c>
@@ -22015,7 +22012,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1107</v>
       </c>
@@ -22029,7 +22026,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>1107</v>
       </c>
@@ -22043,7 +22040,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22057,7 +22054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22071,7 +22068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22085,7 +22082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22099,7 +22096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22113,7 +22110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22127,7 +22124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22141,7 +22138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22155,7 +22152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22169,7 +22166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22183,7 +22180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22197,7 +22194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22211,7 +22208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
         <v>1117</v>
       </c>
@@ -22225,7 +22222,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
         <v>1118</v>
       </c>
@@ -22239,7 +22236,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
         <v>1118</v>
       </c>
@@ -22253,7 +22250,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
         <v>1118</v>
       </c>
@@ -22267,7 +22264,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>1118</v>
       </c>
@@ -22281,7 +22278,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>1118</v>
       </c>
@@ -22295,7 +22292,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22309,7 +22306,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22323,7 +22320,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22337,7 +22334,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22351,7 +22348,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22365,7 +22362,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22379,7 +22376,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22393,7 +22390,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22407,7 +22404,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22421,7 +22418,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22435,7 +22432,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22449,7 +22446,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22463,7 +22460,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22477,7 +22474,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22491,7 +22488,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22505,7 +22502,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22519,7 +22516,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22533,7 +22530,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22547,7 +22544,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22561,7 +22558,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22575,7 +22572,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22589,7 +22586,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22603,7 +22600,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22617,7 +22614,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>1124</v>
       </c>
@@ -22631,7 +22628,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>1190</v>
       </c>
@@ -22645,7 +22642,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>1190</v>
       </c>
@@ -22659,7 +22656,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>1190</v>
       </c>
@@ -22673,7 +22670,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22687,7 +22684,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22701,7 +22698,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22715,7 +22712,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22729,7 +22726,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22743,7 +22740,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22757,7 +22754,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22771,7 +22768,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22785,7 +22782,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22799,7 +22796,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22813,7 +22810,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22827,7 +22824,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22841,7 +22838,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22855,7 +22852,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
         <v>1200</v>
       </c>
@@ -22869,7 +22866,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
         <v>1235</v>
       </c>
@@ -22883,7 +22880,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
         <v>1235</v>
       </c>
@@ -22897,7 +22894,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
         <v>1235</v>
       </c>
@@ -22911,7 +22908,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
         <v>1235</v>
       </c>
@@ -22925,7 +22922,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>1246</v>
       </c>
@@ -22939,7 +22936,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>1246</v>
       </c>
@@ -22953,7 +22950,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
         <v>1246</v>
       </c>
@@ -22967,7 +22964,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
         <v>1246</v>
       </c>
@@ -22981,7 +22978,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
         <v>1246</v>
       </c>
@@ -22995,7 +22992,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
         <v>1246</v>
       </c>
@@ -23009,7 +23006,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
         <v>1246</v>
       </c>
@@ -23023,7 +23020,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="26" t="s">
         <v>1260</v>
       </c>
@@ -23037,7 +23034,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="26" t="s">
         <v>1260</v>
       </c>
@@ -23051,7 +23048,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="26" t="s">
         <v>1260</v>
       </c>
@@ -23065,7 +23062,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="26" t="s">
         <v>1260</v>
       </c>
@@ -23079,7 +23076,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="26" t="s">
         <v>1260</v>
       </c>
@@ -23093,7 +23090,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="26" t="s">
         <v>1260</v>
       </c>
@@ -23107,7 +23104,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="26" t="s">
         <v>1260</v>
       </c>
@@ -23121,7 +23118,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23132,7 +23129,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23143,7 +23140,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23154,7 +23151,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23165,7 +23162,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23176,7 +23173,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23187,7 +23184,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23198,7 +23195,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23209,7 +23206,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23220,7 +23217,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23231,7 +23228,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23242,7 +23239,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23253,7 +23250,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23264,7 +23261,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
         <v>1264</v>
       </c>
@@ -23275,7 +23272,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23289,7 +23286,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23303,7 +23300,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23317,7 +23314,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23331,7 +23328,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23345,7 +23342,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23359,7 +23356,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23373,7 +23370,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23387,7 +23384,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
         <v>1280</v>
       </c>
@@ -23401,7 +23398,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23415,7 +23412,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23429,7 +23426,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23443,7 +23440,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23457,7 +23454,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23471,7 +23468,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23485,7 +23482,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23499,7 +23496,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23513,7 +23510,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23527,7 +23524,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23541,7 +23538,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23555,7 +23552,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23569,7 +23566,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23583,7 +23580,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="26" t="s">
         <v>1299</v>
       </c>
@@ -23597,7 +23594,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23611,7 +23608,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23625,7 +23622,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23639,7 +23636,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23653,7 +23650,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23667,7 +23664,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23681,7 +23678,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23695,7 +23692,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23709,7 +23706,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23723,7 +23720,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23737,7 +23734,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23751,7 +23748,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23765,7 +23762,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23779,7 +23776,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23793,7 +23790,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23807,7 +23804,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23821,7 +23818,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23835,7 +23832,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23849,7 +23846,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23863,7 +23860,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23877,7 +23874,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="26" t="s">
         <v>1332</v>
       </c>
@@ -23891,7 +23888,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="29" t="s">
         <v>1383</v>
       </c>
@@ -23905,7 +23902,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="29" t="s">
         <v>1383</v>
       </c>
@@ -23919,7 +23916,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="29" t="s">
         <v>1383</v>
       </c>
@@ -23933,7 +23930,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="29" t="s">
         <v>1383</v>
       </c>
@@ -23947,7 +23944,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
         <v>1383</v>
       </c>
@@ -23961,7 +23958,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="29" t="s">
         <v>1383</v>
       </c>
@@ -23975,7 +23972,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
         <v>1383</v>
       </c>
@@ -23989,7 +23986,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24003,7 +24000,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24017,7 +24014,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24031,7 +24028,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24045,7 +24042,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24059,7 +24056,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24073,7 +24070,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24087,7 +24084,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24101,7 +24098,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24115,7 +24112,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24129,7 +24126,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24143,7 +24140,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24157,7 +24154,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24171,7 +24168,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="29" t="s">
         <v>1383</v>
       </c>
@@ -24185,13 +24182,13 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
       <c r="D217" s="29"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24205,7 +24202,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24219,7 +24216,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24233,7 +24230,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24247,7 +24244,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24261,7 +24258,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24275,7 +24272,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24289,7 +24286,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24303,7 +24300,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24317,7 +24314,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24331,7 +24328,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24345,7 +24342,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24359,7 +24356,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="29" t="s">
         <v>1418</v>
       </c>
@@ -24373,13 +24370,13 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
       <c r="D231" s="29"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="29" t="s">
         <v>1451</v>
       </c>
@@ -24393,7 +24390,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="29" t="s">
         <v>1451</v>
       </c>
@@ -24407,7 +24404,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="29" t="s">
         <v>1451</v>
       </c>
@@ -24421,7 +24418,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="29" t="s">
         <v>1451</v>
       </c>
@@ -24435,7 +24432,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="29" t="s">
         <v>1451</v>
       </c>
@@ -24449,7 +24446,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="29" t="s">
         <v>1451</v>
       </c>
@@ -24463,7 +24460,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="26" t="s">
         <v>1464</v>
       </c>
@@ -24477,7 +24474,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="26" t="s">
         <v>1464</v>
       </c>
@@ -24491,7 +24488,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="26" t="s">
         <v>1464</v>
       </c>
@@ -24505,7 +24502,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="26" t="s">
         <v>1464</v>
       </c>
@@ -24519,7 +24516,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="26" t="s">
         <v>1464</v>
       </c>
@@ -24533,7 +24530,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="26" t="s">
         <v>1464</v>
       </c>
@@ -24547,7 +24544,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="26" t="s">
         <v>1479</v>
       </c>
@@ -24561,7 +24558,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="26" t="s">
         <v>1479</v>
       </c>
@@ -24575,7 +24572,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="26" t="s">
         <v>1479</v>
       </c>
@@ -24589,7 +24586,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="26" t="s">
         <v>1479</v>
       </c>
@@ -24603,7 +24600,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="26" t="s">
         <v>1479</v>
       </c>
@@ -24617,7 +24614,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="26" t="s">
         <v>1479</v>
       </c>
@@ -24631,7 +24628,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="26" t="s">
         <v>1479</v>
       </c>
@@ -24645,7 +24642,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="26" t="s">
         <v>1479</v>
       </c>
@@ -24659,7 +24656,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24673,7 +24670,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24687,7 +24684,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24701,7 +24698,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24715,7 +24712,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24729,7 +24726,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24743,7 +24740,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24757,7 +24754,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24771,7 +24768,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24785,7 +24782,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24799,7 +24796,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24813,7 +24810,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="26" t="s">
         <v>1495</v>
       </c>
@@ -24827,7 +24824,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="26" t="s">
         <v>1522</v>
       </c>
@@ -24841,7 +24838,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="26" t="s">
         <v>1522</v>
       </c>
@@ -24855,7 +24852,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="26" t="s">
         <v>1522</v>
       </c>
@@ -24869,7 +24866,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="26" t="s">
         <v>1522</v>
       </c>
@@ -24883,7 +24880,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="26" t="s">
         <v>1522</v>
       </c>
@@ -24897,7 +24894,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="26" t="s">
         <v>1522</v>
       </c>
@@ -24911,7 +24908,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="26" t="s">
         <v>1535</v>
       </c>
@@ -24925,7 +24922,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="26" t="s">
         <v>1535</v>
       </c>
@@ -24939,7 +24936,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="26" t="s">
         <v>1535</v>
       </c>
@@ -24953,7 +24950,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="26" t="s">
         <v>1535</v>
       </c>
@@ -24967,7 +24964,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="26" t="s">
         <v>1535</v>
       </c>
@@ -24981,7 +24978,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="26" t="s">
         <v>1535</v>
       </c>
@@ -24995,7 +24992,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="26" t="s">
         <v>1535</v>
       </c>
@@ -25009,7 +25006,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="26" t="s">
         <v>1535</v>
       </c>
@@ -25023,7 +25020,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="26" t="s">
         <v>1553</v>
       </c>
@@ -25037,7 +25034,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="26" t="s">
         <v>1553</v>
       </c>
@@ -25051,7 +25048,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="26" t="s">
         <v>1553</v>
       </c>
@@ -25065,7 +25062,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="26" t="s">
         <v>1553</v>
       </c>
@@ -25079,7 +25076,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="26" t="s">
         <v>1553</v>
       </c>
@@ -25093,7 +25090,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="26" t="s">
         <v>1554</v>
       </c>
@@ -25107,7 +25104,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="26" t="s">
         <v>1554</v>
       </c>
@@ -25121,7 +25118,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="26" t="s">
         <v>1554</v>
       </c>
@@ -25135,7 +25132,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="26" t="s">
         <v>1554</v>
       </c>
@@ -25149,7 +25146,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="26" t="s">
         <v>1554</v>
       </c>
@@ -25163,7 +25160,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="26" t="s">
         <v>1554</v>
       </c>
@@ -25177,7 +25174,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="26" t="s">
         <v>1562</v>
       </c>
@@ -25191,7 +25188,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="26" t="s">
         <v>1562</v>
       </c>
@@ -25205,7 +25202,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="26" t="s">
         <v>1562</v>
       </c>
@@ -25219,7 +25216,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="26" t="s">
         <v>1562</v>
       </c>
@@ -25233,7 +25230,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="26" t="s">
         <v>1562</v>
       </c>
@@ -25247,7 +25244,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="26" t="s">
         <v>1562</v>
       </c>
@@ -25261,7 +25258,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="26" t="s">
         <v>1562</v>
       </c>
@@ -25275,7 +25272,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="26" t="s">
         <v>1578</v>
       </c>
@@ -25289,7 +25286,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="26" t="s">
         <v>1578</v>
       </c>
@@ -25303,7 +25300,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="26" t="s">
         <v>1578</v>
       </c>
@@ -25317,7 +25314,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="26" t="s">
         <v>1578</v>
       </c>
@@ -25331,7 +25328,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="26" t="s">
         <v>1578</v>
       </c>
@@ -25345,7 +25342,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="26" t="s">
         <v>1578</v>
       </c>
@@ -25359,7 +25356,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="26" t="s">
         <v>1578</v>
       </c>
@@ -25373,7 +25370,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25387,7 +25384,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25401,7 +25398,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25415,7 +25412,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25429,7 +25426,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25443,7 +25440,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25457,7 +25454,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25471,7 +25468,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25485,7 +25482,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25499,7 +25496,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25513,7 +25510,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25527,7 +25524,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25541,7 +25538,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25555,7 +25552,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25569,7 +25566,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25583,7 +25580,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25597,7 +25594,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25611,7 +25608,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25625,7 +25622,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="26" t="s">
         <v>1588</v>
       </c>
@@ -25639,7 +25636,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="26" t="s">
         <v>1638</v>
       </c>
@@ -25653,7 +25650,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="26" t="s">
         <v>1638</v>
       </c>
@@ -25667,7 +25664,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="26" t="s">
         <v>1638</v>
       </c>
@@ -25681,7 +25678,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="26" t="s">
         <v>1638</v>
       </c>
@@ -25695,7 +25692,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="26" t="s">
         <v>1645</v>
       </c>
@@ -25709,7 +25706,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="26" t="s">
         <v>1645</v>
       </c>
@@ -25723,7 +25720,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="26" t="s">
         <v>1645</v>
       </c>
@@ -25737,7 +25734,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="26" t="s">
         <v>1645</v>
       </c>
@@ -25751,7 +25748,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="26" t="s">
         <v>1645</v>
       </c>
@@ -25765,7 +25762,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="26" t="s">
         <v>1656</v>
       </c>
@@ -25779,7 +25776,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="26" t="s">
         <v>1656</v>
       </c>
@@ -25793,7 +25790,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="26" t="s">
         <v>1656</v>
       </c>
@@ -25807,7 +25804,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="26" t="s">
         <v>1656</v>
       </c>
@@ -25821,7 +25818,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="26" t="s">
         <v>1656</v>
       </c>
@@ -25835,7 +25832,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="26" t="s">
         <v>1656</v>
       </c>
@@ -25849,7 +25846,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="26" t="s">
         <v>1656</v>
       </c>
@@ -25863,7 +25860,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25877,7 +25874,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25891,7 +25888,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25905,7 +25902,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25919,7 +25916,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25933,7 +25930,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25947,7 +25944,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25961,7 +25958,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25975,7 +25972,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="26" t="s">
         <v>1669</v>
       </c>
@@ -25989,7 +25986,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26003,7 +26000,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26017,7 +26014,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26031,7 +26028,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26045,7 +26042,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26059,7 +26056,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26073,7 +26070,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26087,7 +26084,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26101,7 +26098,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26115,7 +26112,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="26" t="s">
         <v>1669</v>
       </c>
@@ -26129,7 +26126,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="26" t="s">
         <v>1717</v>
       </c>
@@ -26143,7 +26140,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="26" t="s">
         <v>1717</v>
       </c>
@@ -26157,7 +26154,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="26" t="s">
         <v>1717</v>
       </c>
@@ -26171,7 +26168,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="26" t="s">
         <v>1717</v>
       </c>
@@ -26185,7 +26182,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="26" t="s">
         <v>1728</v>
       </c>
@@ -26199,7 +26196,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="26" t="s">
         <v>1728</v>
       </c>
@@ -26213,7 +26210,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="26" t="s">
         <v>1735</v>
       </c>
@@ -26227,7 +26224,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="26" t="s">
         <v>1735</v>
       </c>
@@ -26241,7 +26238,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="26" t="s">
         <v>1735</v>
       </c>
@@ -26255,7 +26252,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="26" t="s">
         <v>1745</v>
       </c>
@@ -26269,7 +26266,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="26" t="s">
         <v>1745</v>
       </c>
@@ -26283,7 +26280,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="26" t="s">
         <v>1745</v>
       </c>
@@ -26297,7 +26294,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="26" t="s">
         <v>1745</v>
       </c>
@@ -26311,7 +26308,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="26" t="s">
         <v>1745</v>
       </c>
@@ -26325,7 +26322,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="26" t="s">
         <v>1745</v>
       </c>
@@ -26339,7 +26336,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="26" t="s">
         <v>1745</v>
       </c>
@@ -26353,7 +26350,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="26" t="s">
         <v>1757</v>
       </c>
@@ -26367,7 +26364,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="26" t="s">
         <v>1757</v>
       </c>
@@ -26381,7 +26378,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="26" t="s">
         <v>1757</v>
       </c>
@@ -26395,7 +26392,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="26" t="s">
         <v>1757</v>
       </c>
@@ -26409,7 +26406,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="26" t="s">
         <v>1757</v>
       </c>
@@ -26423,7 +26420,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="26" t="s">
         <v>1765</v>
       </c>
@@ -26437,7 +26434,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="26" t="s">
         <v>1765</v>
       </c>
@@ -26451,7 +26448,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="26" t="s">
         <v>1765</v>
       </c>
@@ -26465,7 +26462,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="26" t="s">
         <v>1765</v>
       </c>
@@ -26479,7 +26476,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="26" t="s">
         <v>1765</v>
       </c>
@@ -26493,7 +26490,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="26" t="s">
         <v>1765</v>
       </c>
@@ -26507,7 +26504,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26521,7 +26518,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26535,7 +26532,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26549,7 +26546,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26563,7 +26560,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26577,7 +26574,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26591,7 +26588,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26605,7 +26602,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26619,7 +26616,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26633,7 +26630,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26647,7 +26644,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26661,7 +26658,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="29" t="s">
         <v>1775</v>
       </c>
@@ -26675,7 +26672,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="26" t="s">
         <v>1803</v>
       </c>
@@ -26689,7 +26686,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="26" t="s">
         <v>1803</v>
       </c>
@@ -26703,7 +26700,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="26" t="s">
         <v>1803</v>
       </c>
@@ -26717,7 +26714,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="26" t="s">
         <v>1803</v>
       </c>
@@ -26731,7 +26728,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="26" t="s">
         <v>1803</v>
       </c>
@@ -26745,7 +26742,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="26" t="s">
         <v>1803</v>
       </c>
@@ -26759,7 +26756,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26773,7 +26770,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26787,7 +26784,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26801,7 +26798,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26815,7 +26812,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26829,7 +26826,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26843,7 +26840,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26857,7 +26854,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26871,7 +26868,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26885,7 +26882,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26899,7 +26896,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26913,7 +26910,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="26" t="s">
         <v>1815</v>
       </c>
@@ -26927,7 +26924,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="26" t="s">
         <v>1842</v>
       </c>
@@ -26941,7 +26938,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="26" t="s">
         <v>1842</v>
       </c>
@@ -26955,7 +26952,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="26" t="s">
         <v>1842</v>
       </c>
@@ -26969,7 +26966,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="26" t="s">
         <v>1842</v>
       </c>
@@ -26983,7 +26980,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="26" t="s">
         <v>1842</v>
       </c>
@@ -26997,7 +26994,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="26" t="s">
         <v>1842</v>
       </c>
@@ -27011,7 +27008,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="26" t="s">
         <v>1842</v>
       </c>
@@ -27025,7 +27022,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27039,7 +27036,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27053,7 +27050,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27067,7 +27064,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27081,7 +27078,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27095,7 +27092,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27109,7 +27106,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27123,7 +27120,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27137,7 +27134,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27151,7 +27148,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27165,7 +27162,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27179,7 +27176,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="26" t="s">
         <v>1855</v>
       </c>
@@ -27193,121 +27190,121 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A459" s="47" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B459" s="47" t="s">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="46" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B459" s="46" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C459" s="46" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D459" s="46" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="46" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B460" s="46" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C460" s="46" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D460" s="46" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="46" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B461" s="46" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C461" s="46" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D461" s="46" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="46" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B462" s="46" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C462" s="46" t="s">
         <v>1902</v>
       </c>
-      <c r="C459" s="47" t="s">
+      <c r="D462" s="46" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="46" t="s">
         <v>1903</v>
       </c>
-      <c r="D459" s="47" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A460" s="47" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B460" s="47" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C460" s="47" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D460" s="47" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A461" s="47" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B461" s="47" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C461" s="47" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D461" s="47" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A462" s="47" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B462" s="47" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C462" s="47" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D462" s="47" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A463" s="47" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B463" s="47" t="s">
+      <c r="B463" s="46" t="s">
         <v>1069</v>
       </c>
-      <c r="C463" s="47" t="s">
+      <c r="C463" s="46" t="s">
         <v>1070</v>
       </c>
-      <c r="D463" s="47" t="s">
+      <c r="D463" s="46" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A464" s="47" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B464" s="47" t="s">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="46" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B464" s="46" t="s">
         <v>1104</v>
       </c>
-      <c r="C464" s="47" t="s">
+      <c r="C464" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="D464" s="47" t="s">
+      <c r="D464" s="46" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="26" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="B466" s="26" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="C466" s="26" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D466" s="26" t="s">
         <v>1930</v>
       </c>
-      <c r="D466" s="26" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="26" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="B467" s="26" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="C467" s="26" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D467" s="26" t="s">
         <v>1931</v>
       </c>
-      <c r="D467" s="26" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="26" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="B468" s="26" t="s">
         <v>1100</v>
@@ -27319,9 +27316,9 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="26" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="B470" s="26" t="s">
         <v>1097</v>
@@ -27333,9 +27330,9 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="26" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="B471" s="26" t="s">
         <v>1100</v>
@@ -27354,6 +27351,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080E85EC637DE394385C88CEC49596DF4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbf0b56eb1933deadc0c0cd1cf77f18f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0abf2ae5-e878-4ccc-836e-24fe06428412" xmlns:ns3="a6c4a5f2-8fa1-4399-adba-98b13265f581" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10b7c0e23eaaa218a26b41bf2b5f2f3d" ns2:_="" ns3:_="">
     <xsd:import namespace="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
@@ -27548,15 +27554,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -27569,6 +27566,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF96905-2111-4460-93B2-5DBBCF58EFBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27587,14 +27592,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4676863E-963D-4151-9B18-83A7B5BD8FFD}">
   <ds:schemaRefs>

--- a/data-raw/REACH_2024_MSNA-kobo-tool_draft_v10.xlsx
+++ b/data-raw/REACH_2024_MSNA-kobo-tool_draft_v10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADB7B77-80F7-48AF-AF3A-EA2EB2F1DF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F8694A-712A-450E-B0C2-88DD03B73277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D4BD6A84-72CE-494A-A45D-2F376291FCC5}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -5883,9 +5883,6 @@
     <t>Some difficulty</t>
   </si>
   <si>
-    <t>a_lot_of_difficulty</t>
-  </si>
-  <si>
     <t>A lot of difficulty</t>
   </si>
   <si>
@@ -6084,6 +6081,9 @@
   </si>
   <si>
     <t>wgq_communication</t>
+  </si>
+  <si>
+    <t>lot_of_difficulty</t>
   </si>
 </sst>
 </file>
@@ -6664,10 +6664,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F2087-EBA3-4A4D-855A-29B5D74B1D94}">
   <dimension ref="A1:Y525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -9110,10 +9110,10 @@
         <v>1887</v>
       </c>
       <c r="J55" s="14" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K55" s="14" t="s">
         <v>1905</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>1906</v>
       </c>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
@@ -9149,10 +9149,10 @@
         <v>1886</v>
       </c>
       <c r="J56" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K56" s="11" t="s">
         <v>1937</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>1938</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
@@ -9182,20 +9182,20 @@
         <v>162</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="11" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -9227,20 +9227,20 @@
         <v>162</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="11" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
@@ -9249,7 +9249,7 @@
         <v>1097</v>
       </c>
       <c r="P58" s="11" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="Q58" s="11"/>
       <c r="S58" s="47"/>
@@ -9273,20 +9273,20 @@
         <v>162</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
@@ -9295,7 +9295,7 @@
         <v>1097</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="Q59" s="11"/>
       <c r="S59" s="47"/>
@@ -9319,20 +9319,20 @@
         <v>162</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
@@ -9341,10 +9341,10 @@
         <v>1097</v>
       </c>
       <c r="P60" s="11" t="s">
+        <v>1912</v>
+      </c>
+      <c r="Q60" s="47" t="s">
         <v>1913</v>
-      </c>
-      <c r="Q60" s="47" t="s">
-        <v>1914</v>
       </c>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
@@ -9367,13 +9367,13 @@
         <v>38</v>
       </c>
       <c r="I61" s="14" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J61" s="14" t="s">
         <v>1933</v>
       </c>
-      <c r="J61" s="14" t="s">
+      <c r="K61" s="14" t="s">
         <v>1934</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>1935</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
@@ -9388,7 +9388,7 @@
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
       <c r="V61" s="14" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="W61" s="14"/>
       <c r="X61" s="14"/>
@@ -9407,26 +9407,26 @@
         <v>162</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="11" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>1889</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>1890</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N62" s="11"/>
       <c r="O62" s="11" t="s">
@@ -9456,26 +9456,26 @@
         <v>162</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="11" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>1891</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>1890</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="11" t="s">
@@ -9505,26 +9505,26 @@
         <v>162</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="11" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>1892</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="L64" s="11" t="s">
         <v>1890</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="11" t="s">
@@ -9554,26 +9554,26 @@
         <v>162</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="11" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="J65" s="11" t="s">
         <v>1893</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L65" s="11" t="s">
         <v>1890</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N65" s="11"/>
       <c r="O65" s="11" t="s">
@@ -9603,26 +9603,26 @@
         <v>162</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="11" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>1894</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="L66" s="11" t="s">
         <v>1890</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="11" t="s">
@@ -9652,26 +9652,26 @@
         <v>162</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="11" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>1895</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="L67" s="11" t="s">
         <v>1890</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="N67" s="11"/>
       <c r="O67" s="11" t="s">
@@ -9702,7 +9702,7 @@
         <v>106</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -21465,8 +21465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA255992-FDA4-43C6-8D11-151FA1909D95}">
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B352" sqref="B352:B367"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -27192,7 +27192,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B459" s="46" t="s">
         <v>1896</v>
@@ -27201,12 +27201,12 @@
         <v>1897</v>
       </c>
       <c r="D459" s="46" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B460" s="46" t="s">
         <v>1898</v>
@@ -27215,40 +27215,40 @@
         <v>1899</v>
       </c>
       <c r="D460" s="46" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B461" s="46" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C461" s="46" t="s">
         <v>1900</v>
       </c>
-      <c r="C461" s="46" t="s">
-        <v>1901</v>
-      </c>
       <c r="D461" s="46" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B462" s="46" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C462" s="46" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D462" s="46" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B463" s="46" t="s">
         <v>1069</v>
@@ -27262,7 +27262,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="46" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B464" s="46" t="s">
         <v>1104</v>
@@ -27276,35 +27276,35 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="26" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B466" s="26" t="s">
         <v>1921</v>
       </c>
-      <c r="B466" s="26" t="s">
-        <v>1922</v>
-      </c>
       <c r="C466" s="26" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D466" s="26" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="26" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B467" s="26" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C467" s="26" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D467" s="26" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="26" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B468" s="26" t="s">
         <v>1100</v>
@@ -27318,7 +27318,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="26" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B470" s="26" t="s">
         <v>1097</v>
@@ -27332,7 +27332,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="26" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B471" s="26" t="s">
         <v>1100</v>
@@ -27351,12 +27351,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6c4a5f2-8fa1-4399-adba-98b13265f581" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27555,20 +27557,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6c4a5f2-8fa1-4399-adba-98b13265f581" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4676863E-963D-4151-9B18-83A7B5BD8FFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
+    <ds:schemaRef ds:uri="a6c4a5f2-8fa1-4399-adba-98b13265f581"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27593,12 +27596,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4676863E-963D-4151-9B18-83A7B5BD8FFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{273B2F34-4A00-4749-8A90-ABD69807953A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
-    <ds:schemaRef ds:uri="a6c4a5f2-8fa1-4399-adba-98b13265f581"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>